--- a/data-files/manuscripts.xlsx
+++ b/data-files/manuscripts.xlsx
@@ -13,17 +13,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="214">
+  <si>
+    <t>Wish list:</t>
+  </si>
   <si>
     <t>שם הפריט - עברית</t>
   </si>
   <si>
+    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000088626</t>
+  </si>
+  <si>
     <t>תארוך</t>
   </si>
   <si>
-    <t>Wish list:</t>
-  </si>
-  <si>
     <t>מספר מדף</t>
   </si>
   <si>
@@ -48,9 +51,6 @@
     <t>עמודים לפי הקובץ</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000088626</t>
-  </si>
-  <si>
     <t>עולם הפוך</t>
   </si>
   <si>
@@ -72,25 +72,31 @@
     <t>Vatican Library, Vatican City, Vatican City Ms. ebr. 575</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000197685</t>
+    <t>990001976850205171</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990001976850205171</t>
   </si>
   <si>
     <t>על הדבר שהיה ב"פאדובה שנת השצ"א (parallel MS at Columbia; they're transcribing)</t>
   </si>
   <si>
+    <t>שרשי השמות</t>
+  </si>
+  <si>
+    <t>1700-1800</t>
+  </si>
+  <si>
+    <t>Gross, William L., Tel Aviv, Israel Ms. MO.011.085</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000058314</t>
+  </si>
+  <si>
     <t>https://digi.vatlib.it/iiif/MSS_Vat.ebr.575/manifest.json</t>
   </si>
   <si>
-    <t>שרשי השמות</t>
-  </si>
-  <si>
-    <t>1700-1800</t>
-  </si>
-  <si>
-    <t>Gross, William L., Tel Aviv, Israel Ms. MO.011.085</t>
-  </si>
-  <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000058314</t>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000058314-1/manifest?_ga=2.70145044.543609122.1586028608-2057955435.1558354704</t>
   </si>
   <si>
     <t>1a-16b</t>
@@ -105,18 +111,15 @@
     <t>The National Library of Israel, Jerusalem, Israel Ms. Heb. 8°1006</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000042197</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000058314-1/manifest?_ga=2.70145044.543609122.1586028608-2057955435.1558354704</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000042197-1/manifest?_ga=2.230070680.543609122.1586028608-2057955435.1558354704</t>
+    <t>990000421970205171</t>
   </si>
   <si>
     <t>הנהגה כוללת למתחילים במלאכת הרפואה</t>
   </si>
   <si>
+    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990000421970205171</t>
+  </si>
+  <si>
     <t>1400-1500</t>
   </si>
   <si>
@@ -126,6 +129,18 @@
     <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS002706911</t>
   </si>
   <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS002706911-1/manifest?_ga=2.264745355.543609122.1586028608-2057955435.1558354704</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990000421970205171-1/manifest?_ga=2.30317175.97348214.1590568778-2057955435.1558354704</t>
+  </si>
+  <si>
+    <t>137b(?) ff</t>
+  </si>
+  <si>
+    <t>"הנהגת החולים מחולי דבר" ופרקים נוספים על דבר, "לחכם הרב ר' נסים ז"ל": "פעולות טובות להכין הנשים לקבל ההריון" (דף 139בב)</t>
+  </si>
+  <si>
     <t>33a-39a</t>
   </si>
   <si>
@@ -141,22 +156,16 @@
     <t>קונטרס בית כנסת</t>
   </si>
   <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS002706911-1/manifest?_ga=2.264745355.543609122.1586028608-2057955435.1558354704</t>
-  </si>
-  <si>
     <t>Gross, William L., Tel Aviv, Israel Ms. 55</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000054499</t>
-  </si>
-  <si>
-    <t>137b(?) ff</t>
-  </si>
-  <si>
-    <t>"הנהגת החולים מחולי דבר" ופרקים נוספים על דבר, "לחכם הרב ר' נסים ז"ל": "פעולות טובות להכין הנשים לקבל ההריון" (דף 139בב)</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000054499-1/manifest?_ga=2.234723098.543609122.1586028608-2057955435.1558354704</t>
+    <t>990000544990205171</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/he/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990000544990205171</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990000544990205171-1/manifest?_ga=2.106154049.33275308.1590479461-2079472631.1543236723</t>
   </si>
   <si>
     <t>23-24</t>
@@ -174,10 +183,13 @@
     <t>Bar-Ilan University Library, Ramat Gan, Israel Ms. 272</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000060107</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000060107-1/manifest?_ga=2.151436797.55101598.1588085010-2057955435.1558354704</t>
+    <t>990000601070205171</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/he/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990000601070205171</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990000601070205171-1/manifest?_ga=2.174238176.33275308.1590479461-2079472631.1543236723</t>
   </si>
   <si>
     <t>18 (34)</t>
@@ -192,10 +204,13 @@
     <t>Gross, William L., Tel Aviv, Israel Ms. IT.012.003</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000063237</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000063237-1/manifest?_ga=2.122589647.55101598.1588085010-2057955435.1558354704</t>
+    <t>990000632370205171</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/he/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990000632370205171</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990000632370205171-1/manifest?_ga=2.181518821.33275308.1590479461-2079472631.1543236723</t>
   </si>
   <si>
     <t>13 (23)</t>
@@ -210,10 +225,13 @@
     <t>Gross, William L., Tel Aviv, Israel Ms. OT.011.031</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000077127</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000077127-1/manifest?_ga=2.200850858.543609122.1586028608-2057955435.1558354704</t>
+    <t>990000771270205171</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/he/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990000771270205171</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990000771270205171-1/manifest?_ga=2.82427988.33275308.1590479461-2079472631.1543236723</t>
   </si>
   <si>
     <t>30a-32a</t>
@@ -231,10 +249,13 @@
     <t>Gross, William L., Tel Aviv, Israel Ms. 224</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000089301</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000089301-1/manifest?_ga=2.37068196.543609122.1586028608-2057955435.1558354704</t>
+    <t>990000893010205171</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990000893010205171</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990000893010205171-1/manifest?_ga=2.37068196.543609122.1586028608-2057955435.1558354704</t>
   </si>
   <si>
     <t>46a-48a (51-53)</t>
@@ -249,10 +270,13 @@
     <t>The Beth Din &amp; Beth Hamidrash Library, London, England Ms. 140</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000122409</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000122409-1/manifest?_ga=2.200339498.543609122.1586028608-2057955435.1558354704</t>
+    <t>990001789130205171</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990001789130205171</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990001789130205171-1/manifest?_ga=2.200339498.543609122.1586028608-2057955435.1558354704</t>
   </si>
   <si>
     <t>13a-b (16-17)</t>
@@ -270,10 +294,13 @@
     <t>Institute of Oriental Manuscripts, the Russian Academy of Sciences, St. Petersburg, Russia Ms. A 4</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000178491</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000178491-1/manifest?_ga=2.211847892.1761149086.1587494625-2057955435.1558354704</t>
+    <t>990001784910205171</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS 990001784910205171</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990001784910205171-1/manifest?_ga=2.211847892.1761149086.1587494625-2057955435.1558354704</t>
   </si>
   <si>
     <t>20 (38)</t>
@@ -285,10 +312,13 @@
     <t>Jewish Community of Ferrara, Ferrara, Italy Ms. 95</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS000190827</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS000190827-1/manifest?_ga=2.151436797.55101598.1588085010-2057955435.1558354704</t>
+    <t>990001908270205171</t>
+  </si>
+  <si>
+    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990001908270205171</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990001908270205171-1/manifest?_ga=2.31891318.97348214.1590568778-2057955435.1558354704</t>
   </si>
   <si>
     <t>9 (10)</t>
@@ -306,10 +336,10 @@
     <t>The National Library of Israel, Jerusalem, Israel Ms. Fr. 811.1</t>
   </si>
   <si>
-    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS003508695</t>
-  </si>
-  <si>
-    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS003508695-1/manifest?_ga=2.88979679.55101598.1588085010-2057955435.1558354704</t>
+    <t>https://web.nli.org.il/sites/NLIS/en/ManuScript/Pages/Item.aspx?ItemID=PNX_MANUSCRIPTS990035086950205171</t>
+  </si>
+  <si>
+    <t>https://iiif.nli.org.il/IIIFv21/DOCID/PNX_MANUSCRIPTS990035086950205171-1/manifest?_ga=2.31585014.97348214.1590568778-2057955435.1558354704</t>
   </si>
   <si>
     <t>20 (39)</t>
@@ -678,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -694,10 +724,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -950,3819 +983,3820 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="50.86"/>
     <col customWidth="1" min="3" max="3" width="60.86"/>
-    <col customWidth="1" min="5" max="5" width="28.0"/>
-    <col customWidth="1" min="6" max="6" width="39.29"/>
+    <col customWidth="1" min="4" max="4" width="10.86"/>
+    <col customWidth="1" min="5" max="5" width="97.43"/>
+    <col customWidth="1" min="6" max="6" width="124.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2">
-        <v>197685.0</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1">
         <v>33.0</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
+      <c r="J2" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
         <v>1754.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2">
-        <v>42197.0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>40</v>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
         <v>1777.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2">
-        <v>54499.0</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="8">
+        <v>43910.0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="J5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2">
-        <v>60107.0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="7">
-        <v>43910.0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="8">
+        <v>43875.0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2">
-        <v>63237.0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="7">
-        <v>43875.0</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1788.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1760.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3508695.0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="1">
+        <v>124261.0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2">
-        <v>77127.0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1788.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2">
-        <v>89301.0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2">
-        <v>122409.0</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="C14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="1">
+        <v>124482.0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1656.0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="1">
+        <v>124337.0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="1">
+        <v>124502.0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="1">
+        <v>146609.0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="1">
+        <v>124348.0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3509123.0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="1">
+        <v>124353.0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="1">
+        <v>61126.0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3509091.0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="1">
         <v>2.0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3509122.0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3509128.0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="2">
-        <v>178491.0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="1">
+        <v>67201.0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="2">
-        <v>190827.0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1760.0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3508695.0</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="2">
-        <v>124261.0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="2">
-        <v>124482.0</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1656.0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="2">
-        <v>124337.0</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="1">
+        <v>124829.0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1756.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2906942.0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1762.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="1">
+        <v>62203.0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1792.0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="1">
+        <v>58098.0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="2">
-        <v>124502.0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="1">
+        <v>78903.0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="2">
-        <v>146609.0</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="2">
-        <v>124348.0</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="2">
-        <v>3509123.0</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="C31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="1">
+        <v>73665.0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="1">
         <v>1.0</v>
       </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="2">
-        <v>124353.0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="2">
-        <v>61126.0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3509091.0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3509122.0</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="2">
-        <v>3509128.0</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="2">
-        <v>67201.0</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="2">
-        <v>124829.0</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1756.0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2906942.0</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1762.0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="2">
-        <v>62203.0</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H28" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1792.0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="2">
-        <v>58098.0</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="2">
-        <v>78903.0</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="I31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="1">
+        <v>175360.0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="1">
+        <v>198.0</v>
+      </c>
+      <c r="H32" s="1">
         <v>1.0</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="2">
-        <v>73665.0</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" s="2">
-        <v>175360.0</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" s="2">
-        <v>198.0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J32" s="9"/>
+      <c r="I32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="10"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="A33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="1">
         <v>58521.0</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J33" s="10"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="A34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="1">
         <v>129742.0</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J34" s="9"/>
+        <v>194</v>
+      </c>
+      <c r="J34" s="10"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="2">
+      <c r="C35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="1">
         <v>124833.0</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J35" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J35" s="10"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="2">
+      <c r="A36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="1">
         <v>131551.0</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J36" s="9"/>
+        <v>203</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J36" s="10"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="2">
+      <c r="A37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="1">
         <v>131478.0</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J37" s="9"/>
+        <v>207</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J37" s="10"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="A38" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="1">
         <v>86287.0</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J38" s="9"/>
+        <v>211</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J38" s="10"/>
     </row>
     <row r="39">
-      <c r="J39" s="9"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40">
-      <c r="J40" s="9"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41">
-      <c r="J41" s="9"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42">
-      <c r="J42" s="9"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43">
-      <c r="J43" s="9"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44">
-      <c r="J44" s="9"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45">
-      <c r="J45" s="9"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46">
-      <c r="J46" s="9"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47">
-      <c r="J47" s="9"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48">
-      <c r="J48" s="9"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49">
-      <c r="J49" s="9"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50">
-      <c r="J50" s="9"/>
+      <c r="J50" s="10"/>
     </row>
     <row r="51">
-      <c r="J51" s="9"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52">
-      <c r="J52" s="9"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53">
-      <c r="J53" s="9"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54">
-      <c r="J54" s="9"/>
+      <c r="J54" s="10"/>
     </row>
     <row r="55">
-      <c r="J55" s="9"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56">
-      <c r="J56" s="9"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57">
-      <c r="J57" s="9"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58">
-      <c r="J58" s="9"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59">
-      <c r="J59" s="9"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60">
-      <c r="J60" s="9"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61">
-      <c r="J61" s="9"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62">
-      <c r="J62" s="9"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63">
-      <c r="J63" s="9"/>
+      <c r="J63" s="10"/>
     </row>
     <row r="64">
-      <c r="J64" s="9"/>
+      <c r="J64" s="10"/>
     </row>
     <row r="65">
-      <c r="J65" s="9"/>
+      <c r="J65" s="10"/>
     </row>
     <row r="66">
-      <c r="J66" s="9"/>
+      <c r="J66" s="10"/>
     </row>
     <row r="67">
-      <c r="J67" s="9"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68">
-      <c r="J68" s="9"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69">
-      <c r="J69" s="9"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70">
-      <c r="J70" s="9"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71">
-      <c r="J71" s="9"/>
+      <c r="J71" s="10"/>
     </row>
     <row r="72">
-      <c r="J72" s="9"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73">
-      <c r="J73" s="9"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74">
-      <c r="J74" s="9"/>
+      <c r="J74" s="10"/>
     </row>
     <row r="75">
-      <c r="J75" s="9"/>
+      <c r="J75" s="10"/>
     </row>
     <row r="76">
-      <c r="J76" s="9"/>
+      <c r="J76" s="10"/>
     </row>
     <row r="77">
-      <c r="J77" s="9"/>
+      <c r="J77" s="10"/>
     </row>
     <row r="78">
-      <c r="J78" s="9"/>
+      <c r="J78" s="10"/>
     </row>
     <row r="79">
-      <c r="J79" s="9"/>
+      <c r="J79" s="10"/>
     </row>
     <row r="80">
-      <c r="J80" s="9"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81">
-      <c r="J81" s="9"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82">
-      <c r="J82" s="9"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83">
-      <c r="J83" s="9"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84">
-      <c r="J84" s="9"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85">
-      <c r="J85" s="9"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86">
-      <c r="J86" s="9"/>
+      <c r="J86" s="10"/>
     </row>
     <row r="87">
-      <c r="J87" s="9"/>
+      <c r="J87" s="10"/>
     </row>
     <row r="88">
-      <c r="J88" s="9"/>
+      <c r="J88" s="10"/>
     </row>
     <row r="89">
-      <c r="J89" s="9"/>
+      <c r="J89" s="10"/>
     </row>
     <row r="90">
-      <c r="J90" s="9"/>
+      <c r="J90" s="10"/>
     </row>
     <row r="91">
-      <c r="J91" s="9"/>
+      <c r="J91" s="10"/>
     </row>
     <row r="92">
-      <c r="J92" s="9"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93">
-      <c r="J93" s="9"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94">
-      <c r="J94" s="9"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95">
-      <c r="J95" s="9"/>
+      <c r="J95" s="10"/>
     </row>
     <row r="96">
-      <c r="J96" s="9"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97">
-      <c r="J97" s="9"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98">
-      <c r="J98" s="9"/>
+      <c r="J98" s="10"/>
     </row>
     <row r="99">
-      <c r="J99" s="9"/>
+      <c r="J99" s="10"/>
     </row>
     <row r="100">
-      <c r="J100" s="9"/>
+      <c r="J100" s="10"/>
     </row>
     <row r="101">
-      <c r="J101" s="9"/>
+      <c r="J101" s="10"/>
     </row>
     <row r="102">
-      <c r="J102" s="9"/>
+      <c r="J102" s="10"/>
     </row>
     <row r="103">
-      <c r="J103" s="9"/>
+      <c r="J103" s="10"/>
     </row>
     <row r="104">
-      <c r="J104" s="9"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105">
-      <c r="J105" s="9"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106">
-      <c r="J106" s="9"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107">
-      <c r="J107" s="9"/>
+      <c r="J107" s="10"/>
     </row>
     <row r="108">
-      <c r="J108" s="9"/>
+      <c r="J108" s="10"/>
     </row>
     <row r="109">
-      <c r="J109" s="9"/>
+      <c r="J109" s="10"/>
     </row>
     <row r="110">
-      <c r="J110" s="9"/>
+      <c r="J110" s="10"/>
     </row>
     <row r="111">
-      <c r="J111" s="9"/>
+      <c r="J111" s="10"/>
     </row>
     <row r="112">
-      <c r="J112" s="9"/>
+      <c r="J112" s="10"/>
     </row>
     <row r="113">
-      <c r="J113" s="9"/>
+      <c r="J113" s="10"/>
     </row>
     <row r="114">
-      <c r="J114" s="9"/>
+      <c r="J114" s="10"/>
     </row>
     <row r="115">
-      <c r="J115" s="9"/>
+      <c r="J115" s="10"/>
     </row>
     <row r="116">
-      <c r="J116" s="9"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117">
-      <c r="J117" s="9"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118">
-      <c r="J118" s="9"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119">
-      <c r="J119" s="9"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120">
-      <c r="J120" s="9"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121">
-      <c r="J121" s="9"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122">
-      <c r="J122" s="9"/>
+      <c r="J122" s="10"/>
     </row>
     <row r="123">
-      <c r="J123" s="9"/>
+      <c r="J123" s="10"/>
     </row>
     <row r="124">
-      <c r="J124" s="9"/>
+      <c r="J124" s="10"/>
     </row>
     <row r="125">
-      <c r="J125" s="9"/>
+      <c r="J125" s="10"/>
     </row>
     <row r="126">
-      <c r="J126" s="9"/>
+      <c r="J126" s="10"/>
     </row>
     <row r="127">
-      <c r="J127" s="9"/>
+      <c r="J127" s="10"/>
     </row>
     <row r="128">
-      <c r="J128" s="9"/>
+      <c r="J128" s="10"/>
     </row>
     <row r="129">
-      <c r="J129" s="9"/>
+      <c r="J129" s="10"/>
     </row>
     <row r="130">
-      <c r="J130" s="9"/>
+      <c r="J130" s="10"/>
     </row>
     <row r="131">
-      <c r="J131" s="9"/>
+      <c r="J131" s="10"/>
     </row>
     <row r="132">
-      <c r="J132" s="9"/>
+      <c r="J132" s="10"/>
     </row>
     <row r="133">
-      <c r="J133" s="9"/>
+      <c r="J133" s="10"/>
     </row>
     <row r="134">
-      <c r="J134" s="9"/>
+      <c r="J134" s="10"/>
     </row>
     <row r="135">
-      <c r="J135" s="9"/>
+      <c r="J135" s="10"/>
     </row>
     <row r="136">
-      <c r="J136" s="9"/>
+      <c r="J136" s="10"/>
     </row>
     <row r="137">
-      <c r="J137" s="9"/>
+      <c r="J137" s="10"/>
     </row>
     <row r="138">
-      <c r="J138" s="9"/>
+      <c r="J138" s="10"/>
     </row>
     <row r="139">
-      <c r="J139" s="9"/>
+      <c r="J139" s="10"/>
     </row>
     <row r="140">
-      <c r="J140" s="9"/>
+      <c r="J140" s="10"/>
     </row>
     <row r="141">
-      <c r="J141" s="9"/>
+      <c r="J141" s="10"/>
     </row>
     <row r="142">
-      <c r="J142" s="9"/>
+      <c r="J142" s="10"/>
     </row>
     <row r="143">
-      <c r="J143" s="9"/>
+      <c r="J143" s="10"/>
     </row>
     <row r="144">
-      <c r="J144" s="9"/>
+      <c r="J144" s="10"/>
     </row>
     <row r="145">
-      <c r="J145" s="9"/>
+      <c r="J145" s="10"/>
     </row>
     <row r="146">
-      <c r="J146" s="9"/>
+      <c r="J146" s="10"/>
     </row>
     <row r="147">
-      <c r="J147" s="9"/>
+      <c r="J147" s="10"/>
     </row>
     <row r="148">
-      <c r="J148" s="9"/>
+      <c r="J148" s="10"/>
     </row>
     <row r="149">
-      <c r="J149" s="9"/>
+      <c r="J149" s="10"/>
     </row>
     <row r="150">
-      <c r="J150" s="9"/>
+      <c r="J150" s="10"/>
     </row>
     <row r="151">
-      <c r="J151" s="9"/>
+      <c r="J151" s="10"/>
     </row>
     <row r="152">
-      <c r="J152" s="9"/>
+      <c r="J152" s="10"/>
     </row>
     <row r="153">
-      <c r="J153" s="9"/>
+      <c r="J153" s="10"/>
     </row>
     <row r="154">
-      <c r="J154" s="9"/>
+      <c r="J154" s="10"/>
     </row>
     <row r="155">
-      <c r="J155" s="9"/>
+      <c r="J155" s="10"/>
     </row>
     <row r="156">
-      <c r="J156" s="9"/>
+      <c r="J156" s="10"/>
     </row>
     <row r="157">
-      <c r="J157" s="9"/>
+      <c r="J157" s="10"/>
     </row>
     <row r="158">
-      <c r="J158" s="9"/>
+      <c r="J158" s="10"/>
     </row>
     <row r="159">
-      <c r="J159" s="9"/>
+      <c r="J159" s="10"/>
     </row>
     <row r="160">
-      <c r="J160" s="9"/>
+      <c r="J160" s="10"/>
     </row>
     <row r="161">
-      <c r="J161" s="9"/>
+      <c r="J161" s="10"/>
     </row>
     <row r="162">
-      <c r="J162" s="9"/>
+      <c r="J162" s="10"/>
     </row>
     <row r="163">
-      <c r="J163" s="9"/>
+      <c r="J163" s="10"/>
     </row>
     <row r="164">
-      <c r="J164" s="9"/>
+      <c r="J164" s="10"/>
     </row>
     <row r="165">
-      <c r="J165" s="9"/>
+      <c r="J165" s="10"/>
     </row>
     <row r="166">
-      <c r="J166" s="9"/>
+      <c r="J166" s="10"/>
     </row>
     <row r="167">
-      <c r="J167" s="9"/>
+      <c r="J167" s="10"/>
     </row>
     <row r="168">
-      <c r="J168" s="9"/>
+      <c r="J168" s="10"/>
     </row>
     <row r="169">
-      <c r="J169" s="9"/>
+      <c r="J169" s="10"/>
     </row>
     <row r="170">
-      <c r="J170" s="9"/>
+      <c r="J170" s="10"/>
     </row>
     <row r="171">
-      <c r="J171" s="9"/>
+      <c r="J171" s="10"/>
     </row>
     <row r="172">
-      <c r="J172" s="9"/>
+      <c r="J172" s="10"/>
     </row>
     <row r="173">
-      <c r="J173" s="9"/>
+      <c r="J173" s="10"/>
     </row>
     <row r="174">
-      <c r="J174" s="9"/>
+      <c r="J174" s="10"/>
     </row>
     <row r="175">
-      <c r="J175" s="9"/>
+      <c r="J175" s="10"/>
     </row>
     <row r="176">
-      <c r="J176" s="9"/>
+      <c r="J176" s="10"/>
     </row>
     <row r="177">
-      <c r="J177" s="9"/>
+      <c r="J177" s="10"/>
     </row>
     <row r="178">
-      <c r="J178" s="9"/>
+      <c r="J178" s="10"/>
     </row>
     <row r="179">
-      <c r="J179" s="9"/>
+      <c r="J179" s="10"/>
     </row>
     <row r="180">
-      <c r="J180" s="9"/>
+      <c r="J180" s="10"/>
     </row>
     <row r="181">
-      <c r="J181" s="9"/>
+      <c r="J181" s="10"/>
     </row>
     <row r="182">
-      <c r="J182" s="9"/>
+      <c r="J182" s="10"/>
     </row>
     <row r="183">
-      <c r="J183" s="9"/>
+      <c r="J183" s="10"/>
     </row>
     <row r="184">
-      <c r="J184" s="9"/>
+      <c r="J184" s="10"/>
     </row>
     <row r="185">
-      <c r="J185" s="9"/>
+      <c r="J185" s="10"/>
     </row>
     <row r="186">
-      <c r="J186" s="9"/>
+      <c r="J186" s="10"/>
     </row>
     <row r="187">
-      <c r="J187" s="9"/>
+      <c r="J187" s="10"/>
     </row>
     <row r="188">
-      <c r="J188" s="9"/>
+      <c r="J188" s="10"/>
     </row>
     <row r="189">
-      <c r="J189" s="9"/>
+      <c r="J189" s="10"/>
     </row>
     <row r="190">
-      <c r="J190" s="9"/>
+      <c r="J190" s="10"/>
     </row>
     <row r="191">
-      <c r="J191" s="9"/>
+      <c r="J191" s="10"/>
     </row>
     <row r="192">
-      <c r="J192" s="9"/>
+      <c r="J192" s="10"/>
     </row>
     <row r="193">
-      <c r="J193" s="9"/>
+      <c r="J193" s="10"/>
     </row>
     <row r="194">
-      <c r="J194" s="9"/>
+      <c r="J194" s="10"/>
     </row>
     <row r="195">
-      <c r="J195" s="9"/>
+      <c r="J195" s="10"/>
     </row>
     <row r="196">
-      <c r="J196" s="9"/>
+      <c r="J196" s="10"/>
     </row>
     <row r="197">
-      <c r="J197" s="9"/>
+      <c r="J197" s="10"/>
     </row>
     <row r="198">
-      <c r="J198" s="9"/>
+      <c r="J198" s="10"/>
     </row>
     <row r="199">
-      <c r="J199" s="9"/>
+      <c r="J199" s="10"/>
     </row>
     <row r="200">
-      <c r="J200" s="9"/>
+      <c r="J200" s="10"/>
     </row>
     <row r="201">
-      <c r="J201" s="9"/>
+      <c r="J201" s="10"/>
     </row>
     <row r="202">
-      <c r="J202" s="9"/>
+      <c r="J202" s="10"/>
     </row>
     <row r="203">
-      <c r="J203" s="9"/>
+      <c r="J203" s="10"/>
     </row>
     <row r="204">
-      <c r="J204" s="9"/>
+      <c r="J204" s="10"/>
     </row>
     <row r="205">
-      <c r="J205" s="9"/>
+      <c r="J205" s="10"/>
     </row>
     <row r="206">
-      <c r="J206" s="9"/>
+      <c r="J206" s="10"/>
     </row>
     <row r="207">
-      <c r="J207" s="9"/>
+      <c r="J207" s="10"/>
     </row>
     <row r="208">
-      <c r="J208" s="9"/>
+      <c r="J208" s="10"/>
     </row>
     <row r="209">
-      <c r="J209" s="9"/>
+      <c r="J209" s="10"/>
     </row>
     <row r="210">
-      <c r="J210" s="9"/>
+      <c r="J210" s="10"/>
     </row>
     <row r="211">
-      <c r="J211" s="9"/>
+      <c r="J211" s="10"/>
     </row>
     <row r="212">
-      <c r="J212" s="9"/>
+      <c r="J212" s="10"/>
     </row>
     <row r="213">
-      <c r="J213" s="9"/>
+      <c r="J213" s="10"/>
     </row>
     <row r="214">
-      <c r="J214" s="9"/>
+      <c r="J214" s="10"/>
     </row>
     <row r="215">
-      <c r="J215" s="9"/>
+      <c r="J215" s="10"/>
     </row>
     <row r="216">
-      <c r="J216" s="9"/>
+      <c r="J216" s="10"/>
     </row>
     <row r="217">
-      <c r="J217" s="9"/>
+      <c r="J217" s="10"/>
     </row>
     <row r="218">
-      <c r="J218" s="9"/>
+      <c r="J218" s="10"/>
     </row>
     <row r="219">
-      <c r="J219" s="9"/>
+      <c r="J219" s="10"/>
     </row>
     <row r="220">
-      <c r="J220" s="9"/>
+      <c r="J220" s="10"/>
     </row>
     <row r="221">
-      <c r="J221" s="9"/>
+      <c r="J221" s="10"/>
     </row>
     <row r="222">
-      <c r="J222" s="9"/>
+      <c r="J222" s="10"/>
     </row>
     <row r="223">
-      <c r="J223" s="9"/>
+      <c r="J223" s="10"/>
     </row>
     <row r="224">
-      <c r="J224" s="9"/>
+      <c r="J224" s="10"/>
     </row>
     <row r="225">
-      <c r="J225" s="9"/>
+      <c r="J225" s="10"/>
     </row>
     <row r="226">
-      <c r="J226" s="9"/>
+      <c r="J226" s="10"/>
     </row>
     <row r="227">
-      <c r="J227" s="9"/>
+      <c r="J227" s="10"/>
     </row>
     <row r="228">
-      <c r="J228" s="9"/>
+      <c r="J228" s="10"/>
     </row>
     <row r="229">
-      <c r="J229" s="9"/>
+      <c r="J229" s="10"/>
     </row>
     <row r="230">
-      <c r="J230" s="9"/>
+      <c r="J230" s="10"/>
     </row>
     <row r="231">
-      <c r="J231" s="9"/>
+      <c r="J231" s="10"/>
     </row>
     <row r="232">
-      <c r="J232" s="9"/>
+      <c r="J232" s="10"/>
     </row>
     <row r="233">
-      <c r="J233" s="9"/>
+      <c r="J233" s="10"/>
     </row>
     <row r="234">
-      <c r="J234" s="9"/>
+      <c r="J234" s="10"/>
     </row>
     <row r="235">
-      <c r="J235" s="9"/>
+      <c r="J235" s="10"/>
     </row>
     <row r="236">
-      <c r="J236" s="9"/>
+      <c r="J236" s="10"/>
     </row>
     <row r="237">
-      <c r="J237" s="9"/>
+      <c r="J237" s="10"/>
     </row>
     <row r="238">
-      <c r="J238" s="9"/>
+      <c r="J238" s="10"/>
     </row>
     <row r="239">
-      <c r="J239" s="9"/>
+      <c r="J239" s="10"/>
     </row>
     <row r="240">
-      <c r="J240" s="9"/>
+      <c r="J240" s="10"/>
     </row>
     <row r="241">
-      <c r="J241" s="9"/>
+      <c r="J241" s="10"/>
     </row>
     <row r="242">
-      <c r="J242" s="9"/>
+      <c r="J242" s="10"/>
     </row>
     <row r="243">
-      <c r="J243" s="9"/>
+      <c r="J243" s="10"/>
     </row>
     <row r="244">
-      <c r="J244" s="9"/>
+      <c r="J244" s="10"/>
     </row>
     <row r="245">
-      <c r="J245" s="9"/>
+      <c r="J245" s="10"/>
     </row>
     <row r="246">
-      <c r="J246" s="9"/>
+      <c r="J246" s="10"/>
     </row>
     <row r="247">
-      <c r="J247" s="9"/>
+      <c r="J247" s="10"/>
     </row>
     <row r="248">
-      <c r="J248" s="9"/>
+      <c r="J248" s="10"/>
     </row>
     <row r="249">
-      <c r="J249" s="9"/>
+      <c r="J249" s="10"/>
     </row>
     <row r="250">
-      <c r="J250" s="9"/>
+      <c r="J250" s="10"/>
     </row>
     <row r="251">
-      <c r="J251" s="9"/>
+      <c r="J251" s="10"/>
     </row>
     <row r="252">
-      <c r="J252" s="9"/>
+      <c r="J252" s="10"/>
     </row>
     <row r="253">
-      <c r="J253" s="9"/>
+      <c r="J253" s="10"/>
     </row>
     <row r="254">
-      <c r="J254" s="9"/>
+      <c r="J254" s="10"/>
     </row>
     <row r="255">
-      <c r="J255" s="9"/>
+      <c r="J255" s="10"/>
     </row>
     <row r="256">
-      <c r="J256" s="9"/>
+      <c r="J256" s="10"/>
     </row>
     <row r="257">
-      <c r="J257" s="9"/>
+      <c r="J257" s="10"/>
     </row>
     <row r="258">
-      <c r="J258" s="9"/>
+      <c r="J258" s="10"/>
     </row>
     <row r="259">
-      <c r="J259" s="9"/>
+      <c r="J259" s="10"/>
     </row>
     <row r="260">
-      <c r="J260" s="9"/>
+      <c r="J260" s="10"/>
     </row>
     <row r="261">
-      <c r="J261" s="9"/>
+      <c r="J261" s="10"/>
     </row>
     <row r="262">
-      <c r="J262" s="9"/>
+      <c r="J262" s="10"/>
     </row>
     <row r="263">
-      <c r="J263" s="9"/>
+      <c r="J263" s="10"/>
     </row>
     <row r="264">
-      <c r="J264" s="9"/>
+      <c r="J264" s="10"/>
     </row>
     <row r="265">
-      <c r="J265" s="9"/>
+      <c r="J265" s="10"/>
     </row>
     <row r="266">
-      <c r="J266" s="9"/>
+      <c r="J266" s="10"/>
     </row>
     <row r="267">
-      <c r="J267" s="9"/>
+      <c r="J267" s="10"/>
     </row>
     <row r="268">
-      <c r="J268" s="9"/>
+      <c r="J268" s="10"/>
     </row>
     <row r="269">
-      <c r="J269" s="9"/>
+      <c r="J269" s="10"/>
     </row>
     <row r="270">
-      <c r="J270" s="9"/>
+      <c r="J270" s="10"/>
     </row>
     <row r="271">
-      <c r="J271" s="9"/>
+      <c r="J271" s="10"/>
     </row>
     <row r="272">
-      <c r="J272" s="9"/>
+      <c r="J272" s="10"/>
     </row>
     <row r="273">
-      <c r="J273" s="9"/>
+      <c r="J273" s="10"/>
     </row>
     <row r="274">
-      <c r="J274" s="9"/>
+      <c r="J274" s="10"/>
     </row>
     <row r="275">
-      <c r="J275" s="9"/>
+      <c r="J275" s="10"/>
     </row>
     <row r="276">
-      <c r="J276" s="9"/>
+      <c r="J276" s="10"/>
     </row>
     <row r="277">
-      <c r="J277" s="9"/>
+      <c r="J277" s="10"/>
     </row>
     <row r="278">
-      <c r="J278" s="9"/>
+      <c r="J278" s="10"/>
     </row>
     <row r="279">
-      <c r="J279" s="9"/>
+      <c r="J279" s="10"/>
     </row>
     <row r="280">
-      <c r="J280" s="9"/>
+      <c r="J280" s="10"/>
     </row>
     <row r="281">
-      <c r="J281" s="9"/>
+      <c r="J281" s="10"/>
     </row>
     <row r="282">
-      <c r="J282" s="9"/>
+      <c r="J282" s="10"/>
     </row>
     <row r="283">
-      <c r="J283" s="9"/>
+      <c r="J283" s="10"/>
     </row>
     <row r="284">
-      <c r="J284" s="9"/>
+      <c r="J284" s="10"/>
     </row>
     <row r="285">
-      <c r="J285" s="9"/>
+      <c r="J285" s="10"/>
     </row>
     <row r="286">
-      <c r="J286" s="9"/>
+      <c r="J286" s="10"/>
     </row>
     <row r="287">
-      <c r="J287" s="9"/>
+      <c r="J287" s="10"/>
     </row>
     <row r="288">
-      <c r="J288" s="9"/>
+      <c r="J288" s="10"/>
     </row>
     <row r="289">
-      <c r="J289" s="9"/>
+      <c r="J289" s="10"/>
     </row>
     <row r="290">
-      <c r="J290" s="9"/>
+      <c r="J290" s="10"/>
     </row>
     <row r="291">
-      <c r="J291" s="9"/>
+      <c r="J291" s="10"/>
     </row>
     <row r="292">
-      <c r="J292" s="9"/>
+      <c r="J292" s="10"/>
     </row>
     <row r="293">
-      <c r="J293" s="9"/>
+      <c r="J293" s="10"/>
     </row>
     <row r="294">
-      <c r="J294" s="9"/>
+      <c r="J294" s="10"/>
     </row>
     <row r="295">
-      <c r="J295" s="9"/>
+      <c r="J295" s="10"/>
     </row>
     <row r="296">
-      <c r="J296" s="9"/>
+      <c r="J296" s="10"/>
     </row>
     <row r="297">
-      <c r="J297" s="9"/>
+      <c r="J297" s="10"/>
     </row>
     <row r="298">
-      <c r="J298" s="9"/>
+      <c r="J298" s="10"/>
     </row>
     <row r="299">
-      <c r="J299" s="9"/>
+      <c r="J299" s="10"/>
     </row>
     <row r="300">
-      <c r="J300" s="9"/>
+      <c r="J300" s="10"/>
     </row>
     <row r="301">
-      <c r="J301" s="9"/>
+      <c r="J301" s="10"/>
     </row>
     <row r="302">
-      <c r="J302" s="9"/>
+      <c r="J302" s="10"/>
     </row>
     <row r="303">
-      <c r="J303" s="9"/>
+      <c r="J303" s="10"/>
     </row>
     <row r="304">
-      <c r="J304" s="9"/>
+      <c r="J304" s="10"/>
     </row>
     <row r="305">
-      <c r="J305" s="9"/>
+      <c r="J305" s="10"/>
     </row>
     <row r="306">
-      <c r="J306" s="9"/>
+      <c r="J306" s="10"/>
     </row>
     <row r="307">
-      <c r="J307" s="9"/>
+      <c r="J307" s="10"/>
     </row>
     <row r="308">
-      <c r="J308" s="9"/>
+      <c r="J308" s="10"/>
     </row>
     <row r="309">
-      <c r="J309" s="9"/>
+      <c r="J309" s="10"/>
     </row>
     <row r="310">
-      <c r="J310" s="9"/>
+      <c r="J310" s="10"/>
     </row>
     <row r="311">
-      <c r="J311" s="9"/>
+      <c r="J311" s="10"/>
     </row>
     <row r="312">
-      <c r="J312" s="9"/>
+      <c r="J312" s="10"/>
     </row>
     <row r="313">
-      <c r="J313" s="9"/>
+      <c r="J313" s="10"/>
     </row>
     <row r="314">
-      <c r="J314" s="9"/>
+      <c r="J314" s="10"/>
     </row>
     <row r="315">
-      <c r="J315" s="9"/>
+      <c r="J315" s="10"/>
     </row>
     <row r="316">
-      <c r="J316" s="9"/>
+      <c r="J316" s="10"/>
     </row>
     <row r="317">
-      <c r="J317" s="9"/>
+      <c r="J317" s="10"/>
     </row>
     <row r="318">
-      <c r="J318" s="9"/>
+      <c r="J318" s="10"/>
     </row>
     <row r="319">
-      <c r="J319" s="9"/>
+      <c r="J319" s="10"/>
     </row>
     <row r="320">
-      <c r="J320" s="9"/>
+      <c r="J320" s="10"/>
     </row>
     <row r="321">
-      <c r="J321" s="9"/>
+      <c r="J321" s="10"/>
     </row>
     <row r="322">
-      <c r="J322" s="9"/>
+      <c r="J322" s="10"/>
     </row>
     <row r="323">
-      <c r="J323" s="9"/>
+      <c r="J323" s="10"/>
     </row>
     <row r="324">
-      <c r="J324" s="9"/>
+      <c r="J324" s="10"/>
     </row>
     <row r="325">
-      <c r="J325" s="9"/>
+      <c r="J325" s="10"/>
     </row>
     <row r="326">
-      <c r="J326" s="9"/>
+      <c r="J326" s="10"/>
     </row>
     <row r="327">
-      <c r="J327" s="9"/>
+      <c r="J327" s="10"/>
     </row>
     <row r="328">
-      <c r="J328" s="9"/>
+      <c r="J328" s="10"/>
     </row>
     <row r="329">
-      <c r="J329" s="9"/>
+      <c r="J329" s="10"/>
     </row>
     <row r="330">
-      <c r="J330" s="9"/>
+      <c r="J330" s="10"/>
     </row>
     <row r="331">
-      <c r="J331" s="9"/>
+      <c r="J331" s="10"/>
     </row>
     <row r="332">
-      <c r="J332" s="9"/>
+      <c r="J332" s="10"/>
     </row>
     <row r="333">
-      <c r="J333" s="9"/>
+      <c r="J333" s="10"/>
     </row>
     <row r="334">
-      <c r="J334" s="9"/>
+      <c r="J334" s="10"/>
     </row>
     <row r="335">
-      <c r="J335" s="9"/>
+      <c r="J335" s="10"/>
     </row>
     <row r="336">
-      <c r="J336" s="9"/>
+      <c r="J336" s="10"/>
     </row>
     <row r="337">
-      <c r="J337" s="9"/>
+      <c r="J337" s="10"/>
     </row>
     <row r="338">
-      <c r="J338" s="9"/>
+      <c r="J338" s="10"/>
     </row>
     <row r="339">
-      <c r="J339" s="9"/>
+      <c r="J339" s="10"/>
     </row>
     <row r="340">
-      <c r="J340" s="9"/>
+      <c r="J340" s="10"/>
     </row>
     <row r="341">
-      <c r="J341" s="9"/>
+      <c r="J341" s="10"/>
     </row>
     <row r="342">
-      <c r="J342" s="9"/>
+      <c r="J342" s="10"/>
     </row>
     <row r="343">
-      <c r="J343" s="9"/>
+      <c r="J343" s="10"/>
     </row>
     <row r="344">
-      <c r="J344" s="9"/>
+      <c r="J344" s="10"/>
     </row>
     <row r="345">
-      <c r="J345" s="9"/>
+      <c r="J345" s="10"/>
     </row>
     <row r="346">
-      <c r="J346" s="9"/>
+      <c r="J346" s="10"/>
     </row>
     <row r="347">
-      <c r="J347" s="9"/>
+      <c r="J347" s="10"/>
     </row>
     <row r="348">
-      <c r="J348" s="9"/>
+      <c r="J348" s="10"/>
     </row>
     <row r="349">
-      <c r="J349" s="9"/>
+      <c r="J349" s="10"/>
     </row>
     <row r="350">
-      <c r="J350" s="9"/>
+      <c r="J350" s="10"/>
     </row>
     <row r="351">
-      <c r="J351" s="9"/>
+      <c r="J351" s="10"/>
     </row>
     <row r="352">
-      <c r="J352" s="9"/>
+      <c r="J352" s="10"/>
     </row>
     <row r="353">
-      <c r="J353" s="9"/>
+      <c r="J353" s="10"/>
     </row>
     <row r="354">
-      <c r="J354" s="9"/>
+      <c r="J354" s="10"/>
     </row>
     <row r="355">
-      <c r="J355" s="9"/>
+      <c r="J355" s="10"/>
     </row>
     <row r="356">
-      <c r="J356" s="9"/>
+      <c r="J356" s="10"/>
     </row>
     <row r="357">
-      <c r="J357" s="9"/>
+      <c r="J357" s="10"/>
     </row>
     <row r="358">
-      <c r="J358" s="9"/>
+      <c r="J358" s="10"/>
     </row>
     <row r="359">
-      <c r="J359" s="9"/>
+      <c r="J359" s="10"/>
     </row>
     <row r="360">
-      <c r="J360" s="9"/>
+      <c r="J360" s="10"/>
     </row>
     <row r="361">
-      <c r="J361" s="9"/>
+      <c r="J361" s="10"/>
     </row>
     <row r="362">
-      <c r="J362" s="9"/>
+      <c r="J362" s="10"/>
     </row>
     <row r="363">
-      <c r="J363" s="9"/>
+      <c r="J363" s="10"/>
     </row>
     <row r="364">
-      <c r="J364" s="9"/>
+      <c r="J364" s="10"/>
     </row>
     <row r="365">
-      <c r="J365" s="9"/>
+      <c r="J365" s="10"/>
     </row>
     <row r="366">
-      <c r="J366" s="9"/>
+      <c r="J366" s="10"/>
     </row>
     <row r="367">
-      <c r="J367" s="9"/>
+      <c r="J367" s="10"/>
     </row>
     <row r="368">
-      <c r="J368" s="9"/>
+      <c r="J368" s="10"/>
     </row>
     <row r="369">
-      <c r="J369" s="9"/>
+      <c r="J369" s="10"/>
     </row>
     <row r="370">
-      <c r="J370" s="9"/>
+      <c r="J370" s="10"/>
     </row>
     <row r="371">
-      <c r="J371" s="9"/>
+      <c r="J371" s="10"/>
     </row>
     <row r="372">
-      <c r="J372" s="9"/>
+      <c r="J372" s="10"/>
     </row>
     <row r="373">
-      <c r="J373" s="9"/>
+      <c r="J373" s="10"/>
     </row>
     <row r="374">
-      <c r="J374" s="9"/>
+      <c r="J374" s="10"/>
     </row>
     <row r="375">
-      <c r="J375" s="9"/>
+      <c r="J375" s="10"/>
     </row>
     <row r="376">
-      <c r="J376" s="9"/>
+      <c r="J376" s="10"/>
     </row>
     <row r="377">
-      <c r="J377" s="9"/>
+      <c r="J377" s="10"/>
     </row>
     <row r="378">
-      <c r="J378" s="9"/>
+      <c r="J378" s="10"/>
     </row>
     <row r="379">
-      <c r="J379" s="9"/>
+      <c r="J379" s="10"/>
     </row>
     <row r="380">
-      <c r="J380" s="9"/>
+      <c r="J380" s="10"/>
     </row>
     <row r="381">
-      <c r="J381" s="9"/>
+      <c r="J381" s="10"/>
     </row>
     <row r="382">
-      <c r="J382" s="9"/>
+      <c r="J382" s="10"/>
     </row>
     <row r="383">
-      <c r="J383" s="9"/>
+      <c r="J383" s="10"/>
     </row>
     <row r="384">
-      <c r="J384" s="9"/>
+      <c r="J384" s="10"/>
     </row>
     <row r="385">
-      <c r="J385" s="9"/>
+      <c r="J385" s="10"/>
     </row>
     <row r="386">
-      <c r="J386" s="9"/>
+      <c r="J386" s="10"/>
     </row>
     <row r="387">
-      <c r="J387" s="9"/>
+      <c r="J387" s="10"/>
     </row>
     <row r="388">
-      <c r="J388" s="9"/>
+      <c r="J388" s="10"/>
     </row>
     <row r="389">
-      <c r="J389" s="9"/>
+      <c r="J389" s="10"/>
     </row>
     <row r="390">
-      <c r="J390" s="9"/>
+      <c r="J390" s="10"/>
     </row>
     <row r="391">
-      <c r="J391" s="9"/>
+      <c r="J391" s="10"/>
     </row>
     <row r="392">
-      <c r="J392" s="9"/>
+      <c r="J392" s="10"/>
     </row>
     <row r="393">
-      <c r="J393" s="9"/>
+      <c r="J393" s="10"/>
     </row>
     <row r="394">
-      <c r="J394" s="9"/>
+      <c r="J394" s="10"/>
     </row>
     <row r="395">
-      <c r="J395" s="9"/>
+      <c r="J395" s="10"/>
     </row>
     <row r="396">
-      <c r="J396" s="9"/>
+      <c r="J396" s="10"/>
     </row>
     <row r="397">
-      <c r="J397" s="9"/>
+      <c r="J397" s="10"/>
     </row>
     <row r="398">
-      <c r="J398" s="9"/>
+      <c r="J398" s="10"/>
     </row>
     <row r="399">
-      <c r="J399" s="9"/>
+      <c r="J399" s="10"/>
     </row>
     <row r="400">
-      <c r="J400" s="9"/>
+      <c r="J400" s="10"/>
     </row>
     <row r="401">
-      <c r="J401" s="9"/>
+      <c r="J401" s="10"/>
     </row>
     <row r="402">
-      <c r="J402" s="9"/>
+      <c r="J402" s="10"/>
     </row>
     <row r="403">
-      <c r="J403" s="9"/>
+      <c r="J403" s="10"/>
     </row>
     <row r="404">
-      <c r="J404" s="9"/>
+      <c r="J404" s="10"/>
     </row>
     <row r="405">
-      <c r="J405" s="9"/>
+      <c r="J405" s="10"/>
     </row>
     <row r="406">
-      <c r="J406" s="9"/>
+      <c r="J406" s="10"/>
     </row>
     <row r="407">
-      <c r="J407" s="9"/>
+      <c r="J407" s="10"/>
     </row>
     <row r="408">
-      <c r="J408" s="9"/>
+      <c r="J408" s="10"/>
     </row>
     <row r="409">
-      <c r="J409" s="9"/>
+      <c r="J409" s="10"/>
     </row>
     <row r="410">
-      <c r="J410" s="9"/>
+      <c r="J410" s="10"/>
     </row>
     <row r="411">
-      <c r="J411" s="9"/>
+      <c r="J411" s="10"/>
     </row>
     <row r="412">
-      <c r="J412" s="9"/>
+      <c r="J412" s="10"/>
     </row>
     <row r="413">
-      <c r="J413" s="9"/>
+      <c r="J413" s="10"/>
     </row>
     <row r="414">
-      <c r="J414" s="9"/>
+      <c r="J414" s="10"/>
     </row>
     <row r="415">
-      <c r="J415" s="9"/>
+      <c r="J415" s="10"/>
     </row>
     <row r="416">
-      <c r="J416" s="9"/>
+      <c r="J416" s="10"/>
     </row>
     <row r="417">
-      <c r="J417" s="9"/>
+      <c r="J417" s="10"/>
     </row>
     <row r="418">
-      <c r="J418" s="9"/>
+      <c r="J418" s="10"/>
     </row>
     <row r="419">
-      <c r="J419" s="9"/>
+      <c r="J419" s="10"/>
     </row>
     <row r="420">
-      <c r="J420" s="9"/>
+      <c r="J420" s="10"/>
     </row>
     <row r="421">
-      <c r="J421" s="9"/>
+      <c r="J421" s="10"/>
     </row>
     <row r="422">
-      <c r="J422" s="9"/>
+      <c r="J422" s="10"/>
     </row>
     <row r="423">
-      <c r="J423" s="9"/>
+      <c r="J423" s="10"/>
     </row>
     <row r="424">
-      <c r="J424" s="9"/>
+      <c r="J424" s="10"/>
     </row>
     <row r="425">
-      <c r="J425" s="9"/>
+      <c r="J425" s="10"/>
     </row>
     <row r="426">
-      <c r="J426" s="9"/>
+      <c r="J426" s="10"/>
     </row>
     <row r="427">
-      <c r="J427" s="9"/>
+      <c r="J427" s="10"/>
     </row>
     <row r="428">
-      <c r="J428" s="9"/>
+      <c r="J428" s="10"/>
     </row>
     <row r="429">
-      <c r="J429" s="9"/>
+      <c r="J429" s="10"/>
     </row>
     <row r="430">
-      <c r="J430" s="9"/>
+      <c r="J430" s="10"/>
     </row>
     <row r="431">
-      <c r="J431" s="9"/>
+      <c r="J431" s="10"/>
     </row>
     <row r="432">
-      <c r="J432" s="9"/>
+      <c r="J432" s="10"/>
     </row>
     <row r="433">
-      <c r="J433" s="9"/>
+      <c r="J433" s="10"/>
     </row>
     <row r="434">
-      <c r="J434" s="9"/>
+      <c r="J434" s="10"/>
     </row>
     <row r="435">
-      <c r="J435" s="9"/>
+      <c r="J435" s="10"/>
     </row>
     <row r="436">
-      <c r="J436" s="9"/>
+      <c r="J436" s="10"/>
     </row>
     <row r="437">
-      <c r="J437" s="9"/>
+      <c r="J437" s="10"/>
     </row>
     <row r="438">
-      <c r="J438" s="9"/>
+      <c r="J438" s="10"/>
     </row>
     <row r="439">
-      <c r="J439" s="9"/>
+      <c r="J439" s="10"/>
     </row>
     <row r="440">
-      <c r="J440" s="9"/>
+      <c r="J440" s="10"/>
     </row>
     <row r="441">
-      <c r="J441" s="9"/>
+      <c r="J441" s="10"/>
     </row>
     <row r="442">
-      <c r="J442" s="9"/>
+      <c r="J442" s="10"/>
     </row>
     <row r="443">
-      <c r="J443" s="9"/>
+      <c r="J443" s="10"/>
     </row>
     <row r="444">
-      <c r="J444" s="9"/>
+      <c r="J444" s="10"/>
     </row>
     <row r="445">
-      <c r="J445" s="9"/>
+      <c r="J445" s="10"/>
     </row>
     <row r="446">
-      <c r="J446" s="9"/>
+      <c r="J446" s="10"/>
     </row>
     <row r="447">
-      <c r="J447" s="9"/>
+      <c r="J447" s="10"/>
     </row>
     <row r="448">
-      <c r="J448" s="9"/>
+      <c r="J448" s="10"/>
     </row>
     <row r="449">
-      <c r="J449" s="9"/>
+      <c r="J449" s="10"/>
     </row>
     <row r="450">
-      <c r="J450" s="9"/>
+      <c r="J450" s="10"/>
     </row>
     <row r="451">
-      <c r="J451" s="9"/>
+      <c r="J451" s="10"/>
     </row>
     <row r="452">
-      <c r="J452" s="9"/>
+      <c r="J452" s="10"/>
     </row>
     <row r="453">
-      <c r="J453" s="9"/>
+      <c r="J453" s="10"/>
     </row>
     <row r="454">
-      <c r="J454" s="9"/>
+      <c r="J454" s="10"/>
     </row>
     <row r="455">
-      <c r="J455" s="9"/>
+      <c r="J455" s="10"/>
     </row>
     <row r="456">
-      <c r="J456" s="9"/>
+      <c r="J456" s="10"/>
     </row>
     <row r="457">
-      <c r="J457" s="9"/>
+      <c r="J457" s="10"/>
     </row>
     <row r="458">
-      <c r="J458" s="9"/>
+      <c r="J458" s="10"/>
     </row>
     <row r="459">
-      <c r="J459" s="9"/>
+      <c r="J459" s="10"/>
     </row>
     <row r="460">
-      <c r="J460" s="9"/>
+      <c r="J460" s="10"/>
     </row>
     <row r="461">
-      <c r="J461" s="9"/>
+      <c r="J461" s="10"/>
     </row>
     <row r="462">
-      <c r="J462" s="9"/>
+      <c r="J462" s="10"/>
     </row>
     <row r="463">
-      <c r="J463" s="9"/>
+      <c r="J463" s="10"/>
     </row>
     <row r="464">
-      <c r="J464" s="9"/>
+      <c r="J464" s="10"/>
     </row>
     <row r="465">
-      <c r="J465" s="9"/>
+      <c r="J465" s="10"/>
     </row>
     <row r="466">
-      <c r="J466" s="9"/>
+      <c r="J466" s="10"/>
     </row>
     <row r="467">
-      <c r="J467" s="9"/>
+      <c r="J467" s="10"/>
     </row>
     <row r="468">
-      <c r="J468" s="9"/>
+      <c r="J468" s="10"/>
     </row>
     <row r="469">
-      <c r="J469" s="9"/>
+      <c r="J469" s="10"/>
     </row>
     <row r="470">
-      <c r="J470" s="9"/>
+      <c r="J470" s="10"/>
     </row>
     <row r="471">
-      <c r="J471" s="9"/>
+      <c r="J471" s="10"/>
     </row>
     <row r="472">
-      <c r="J472" s="9"/>
+      <c r="J472" s="10"/>
     </row>
     <row r="473">
-      <c r="J473" s="9"/>
+      <c r="J473" s="10"/>
     </row>
     <row r="474">
-      <c r="J474" s="9"/>
+      <c r="J474" s="10"/>
     </row>
     <row r="475">
-      <c r="J475" s="9"/>
+      <c r="J475" s="10"/>
     </row>
     <row r="476">
-      <c r="J476" s="9"/>
+      <c r="J476" s="10"/>
     </row>
     <row r="477">
-      <c r="J477" s="9"/>
+      <c r="J477" s="10"/>
     </row>
     <row r="478">
-      <c r="J478" s="9"/>
+      <c r="J478" s="10"/>
     </row>
     <row r="479">
-      <c r="J479" s="9"/>
+      <c r="J479" s="10"/>
     </row>
     <row r="480">
-      <c r="J480" s="9"/>
+      <c r="J480" s="10"/>
     </row>
     <row r="481">
-      <c r="J481" s="9"/>
+      <c r="J481" s="10"/>
     </row>
     <row r="482">
-      <c r="J482" s="9"/>
+      <c r="J482" s="10"/>
     </row>
     <row r="483">
-      <c r="J483" s="9"/>
+      <c r="J483" s="10"/>
     </row>
     <row r="484">
-      <c r="J484" s="9"/>
+      <c r="J484" s="10"/>
     </row>
     <row r="485">
-      <c r="J485" s="9"/>
+      <c r="J485" s="10"/>
     </row>
     <row r="486">
-      <c r="J486" s="9"/>
+      <c r="J486" s="10"/>
     </row>
     <row r="487">
-      <c r="J487" s="9"/>
+      <c r="J487" s="10"/>
     </row>
     <row r="488">
-      <c r="J488" s="9"/>
+      <c r="J488" s="10"/>
     </row>
     <row r="489">
-      <c r="J489" s="9"/>
+      <c r="J489" s="10"/>
     </row>
     <row r="490">
-      <c r="J490" s="9"/>
+      <c r="J490" s="10"/>
     </row>
     <row r="491">
-      <c r="J491" s="9"/>
+      <c r="J491" s="10"/>
     </row>
     <row r="492">
-      <c r="J492" s="9"/>
+      <c r="J492" s="10"/>
     </row>
     <row r="493">
-      <c r="J493" s="9"/>
+      <c r="J493" s="10"/>
     </row>
     <row r="494">
-      <c r="J494" s="9"/>
+      <c r="J494" s="10"/>
     </row>
     <row r="495">
-      <c r="J495" s="9"/>
+      <c r="J495" s="10"/>
     </row>
     <row r="496">
-      <c r="J496" s="9"/>
+      <c r="J496" s="10"/>
     </row>
     <row r="497">
-      <c r="J497" s="9"/>
+      <c r="J497" s="10"/>
     </row>
     <row r="498">
-      <c r="J498" s="9"/>
+      <c r="J498" s="10"/>
     </row>
     <row r="499">
-      <c r="J499" s="9"/>
+      <c r="J499" s="10"/>
     </row>
     <row r="500">
-      <c r="J500" s="9"/>
+      <c r="J500" s="10"/>
     </row>
     <row r="501">
-      <c r="J501" s="9"/>
+      <c r="J501" s="10"/>
     </row>
     <row r="502">
-      <c r="J502" s="9"/>
+      <c r="J502" s="10"/>
     </row>
     <row r="503">
-      <c r="J503" s="9"/>
+      <c r="J503" s="10"/>
     </row>
     <row r="504">
-      <c r="J504" s="9"/>
+      <c r="J504" s="10"/>
     </row>
     <row r="505">
-      <c r="J505" s="9"/>
+      <c r="J505" s="10"/>
     </row>
     <row r="506">
-      <c r="J506" s="9"/>
+      <c r="J506" s="10"/>
     </row>
     <row r="507">
-      <c r="J507" s="9"/>
+      <c r="J507" s="10"/>
     </row>
     <row r="508">
-      <c r="J508" s="9"/>
+      <c r="J508" s="10"/>
     </row>
     <row r="509">
-      <c r="J509" s="9"/>
+      <c r="J509" s="10"/>
     </row>
     <row r="510">
-      <c r="J510" s="9"/>
+      <c r="J510" s="10"/>
     </row>
     <row r="511">
-      <c r="J511" s="9"/>
+      <c r="J511" s="10"/>
     </row>
     <row r="512">
-      <c r="J512" s="9"/>
+      <c r="J512" s="10"/>
     </row>
     <row r="513">
-      <c r="J513" s="9"/>
+      <c r="J513" s="10"/>
     </row>
     <row r="514">
-      <c r="J514" s="9"/>
+      <c r="J514" s="10"/>
     </row>
     <row r="515">
-      <c r="J515" s="9"/>
+      <c r="J515" s="10"/>
     </row>
     <row r="516">
-      <c r="J516" s="9"/>
+      <c r="J516" s="10"/>
     </row>
     <row r="517">
-      <c r="J517" s="9"/>
+      <c r="J517" s="10"/>
     </row>
     <row r="518">
-      <c r="J518" s="9"/>
+      <c r="J518" s="10"/>
     </row>
     <row r="519">
-      <c r="J519" s="9"/>
+      <c r="J519" s="10"/>
     </row>
     <row r="520">
-      <c r="J520" s="9"/>
+      <c r="J520" s="10"/>
     </row>
     <row r="521">
-      <c r="J521" s="9"/>
+      <c r="J521" s="10"/>
     </row>
     <row r="522">
-      <c r="J522" s="9"/>
+      <c r="J522" s="10"/>
     </row>
     <row r="523">
-      <c r="J523" s="9"/>
+      <c r="J523" s="10"/>
     </row>
     <row r="524">
-      <c r="J524" s="9"/>
+      <c r="J524" s="10"/>
     </row>
     <row r="525">
-      <c r="J525" s="9"/>
+      <c r="J525" s="10"/>
     </row>
     <row r="526">
-      <c r="J526" s="9"/>
+      <c r="J526" s="10"/>
     </row>
     <row r="527">
-      <c r="J527" s="9"/>
+      <c r="J527" s="10"/>
     </row>
     <row r="528">
-      <c r="J528" s="9"/>
+      <c r="J528" s="10"/>
     </row>
     <row r="529">
-      <c r="J529" s="9"/>
+      <c r="J529" s="10"/>
     </row>
     <row r="530">
-      <c r="J530" s="9"/>
+      <c r="J530" s="10"/>
     </row>
     <row r="531">
-      <c r="J531" s="9"/>
+      <c r="J531" s="10"/>
     </row>
     <row r="532">
-      <c r="J532" s="9"/>
+      <c r="J532" s="10"/>
     </row>
     <row r="533">
-      <c r="J533" s="9"/>
+      <c r="J533" s="10"/>
     </row>
     <row r="534">
-      <c r="J534" s="9"/>
+      <c r="J534" s="10"/>
     </row>
     <row r="535">
-      <c r="J535" s="9"/>
+      <c r="J535" s="10"/>
     </row>
     <row r="536">
-      <c r="J536" s="9"/>
+      <c r="J536" s="10"/>
     </row>
     <row r="537">
-      <c r="J537" s="9"/>
+      <c r="J537" s="10"/>
     </row>
     <row r="538">
-      <c r="J538" s="9"/>
+      <c r="J538" s="10"/>
     </row>
     <row r="539">
-      <c r="J539" s="9"/>
+      <c r="J539" s="10"/>
     </row>
     <row r="540">
-      <c r="J540" s="9"/>
+      <c r="J540" s="10"/>
     </row>
     <row r="541">
-      <c r="J541" s="9"/>
+      <c r="J541" s="10"/>
     </row>
     <row r="542">
-      <c r="J542" s="9"/>
+      <c r="J542" s="10"/>
     </row>
     <row r="543">
-      <c r="J543" s="9"/>
+      <c r="J543" s="10"/>
     </row>
     <row r="544">
-      <c r="J544" s="9"/>
+      <c r="J544" s="10"/>
     </row>
     <row r="545">
-      <c r="J545" s="9"/>
+      <c r="J545" s="10"/>
     </row>
     <row r="546">
-      <c r="J546" s="9"/>
+      <c r="J546" s="10"/>
     </row>
     <row r="547">
-      <c r="J547" s="9"/>
+      <c r="J547" s="10"/>
     </row>
     <row r="548">
-      <c r="J548" s="9"/>
+      <c r="J548" s="10"/>
     </row>
     <row r="549">
-      <c r="J549" s="9"/>
+      <c r="J549" s="10"/>
     </row>
     <row r="550">
-      <c r="J550" s="9"/>
+      <c r="J550" s="10"/>
     </row>
     <row r="551">
-      <c r="J551" s="9"/>
+      <c r="J551" s="10"/>
     </row>
     <row r="552">
-      <c r="J552" s="9"/>
+      <c r="J552" s="10"/>
     </row>
     <row r="553">
-      <c r="J553" s="9"/>
+      <c r="J553" s="10"/>
     </row>
     <row r="554">
-      <c r="J554" s="9"/>
+      <c r="J554" s="10"/>
     </row>
     <row r="555">
-      <c r="J555" s="9"/>
+      <c r="J555" s="10"/>
     </row>
     <row r="556">
-      <c r="J556" s="9"/>
+      <c r="J556" s="10"/>
     </row>
     <row r="557">
-      <c r="J557" s="9"/>
+      <c r="J557" s="10"/>
     </row>
     <row r="558">
-      <c r="J558" s="9"/>
+      <c r="J558" s="10"/>
     </row>
     <row r="559">
-      <c r="J559" s="9"/>
+      <c r="J559" s="10"/>
     </row>
     <row r="560">
-      <c r="J560" s="9"/>
+      <c r="J560" s="10"/>
     </row>
     <row r="561">
-      <c r="J561" s="9"/>
+      <c r="J561" s="10"/>
     </row>
     <row r="562">
-      <c r="J562" s="9"/>
+      <c r="J562" s="10"/>
     </row>
     <row r="563">
-      <c r="J563" s="9"/>
+      <c r="J563" s="10"/>
     </row>
     <row r="564">
-      <c r="J564" s="9"/>
+      <c r="J564" s="10"/>
     </row>
     <row r="565">
-      <c r="J565" s="9"/>
+      <c r="J565" s="10"/>
     </row>
     <row r="566">
-      <c r="J566" s="9"/>
+      <c r="J566" s="10"/>
     </row>
     <row r="567">
-      <c r="J567" s="9"/>
+      <c r="J567" s="10"/>
     </row>
     <row r="568">
-      <c r="J568" s="9"/>
+      <c r="J568" s="10"/>
     </row>
     <row r="569">
-      <c r="J569" s="9"/>
+      <c r="J569" s="10"/>
     </row>
     <row r="570">
-      <c r="J570" s="9"/>
+      <c r="J570" s="10"/>
     </row>
     <row r="571">
-      <c r="J571" s="9"/>
+      <c r="J571" s="10"/>
     </row>
     <row r="572">
-      <c r="J572" s="9"/>
+      <c r="J572" s="10"/>
     </row>
     <row r="573">
-      <c r="J573" s="9"/>
+      <c r="J573" s="10"/>
     </row>
     <row r="574">
-      <c r="J574" s="9"/>
+      <c r="J574" s="10"/>
     </row>
     <row r="575">
-      <c r="J575" s="9"/>
+      <c r="J575" s="10"/>
     </row>
     <row r="576">
-      <c r="J576" s="9"/>
+      <c r="J576" s="10"/>
     </row>
     <row r="577">
-      <c r="J577" s="9"/>
+      <c r="J577" s="10"/>
     </row>
     <row r="578">
-      <c r="J578" s="9"/>
+      <c r="J578" s="10"/>
     </row>
     <row r="579">
-      <c r="J579" s="9"/>
+      <c r="J579" s="10"/>
     </row>
     <row r="580">
-      <c r="J580" s="9"/>
+      <c r="J580" s="10"/>
     </row>
     <row r="581">
-      <c r="J581" s="9"/>
+      <c r="J581" s="10"/>
     </row>
     <row r="582">
-      <c r="J582" s="9"/>
+      <c r="J582" s="10"/>
     </row>
     <row r="583">
-      <c r="J583" s="9"/>
+      <c r="J583" s="10"/>
     </row>
     <row r="584">
-      <c r="J584" s="9"/>
+      <c r="J584" s="10"/>
     </row>
     <row r="585">
-      <c r="J585" s="9"/>
+      <c r="J585" s="10"/>
     </row>
     <row r="586">
-      <c r="J586" s="9"/>
+      <c r="J586" s="10"/>
     </row>
     <row r="587">
-      <c r="J587" s="9"/>
+      <c r="J587" s="10"/>
     </row>
     <row r="588">
-      <c r="J588" s="9"/>
+      <c r="J588" s="10"/>
     </row>
     <row r="589">
-      <c r="J589" s="9"/>
+      <c r="J589" s="10"/>
     </row>
     <row r="590">
-      <c r="J590" s="9"/>
+      <c r="J590" s="10"/>
     </row>
     <row r="591">
-      <c r="J591" s="9"/>
+      <c r="J591" s="10"/>
     </row>
     <row r="592">
-      <c r="J592" s="9"/>
+      <c r="J592" s="10"/>
     </row>
     <row r="593">
-      <c r="J593" s="9"/>
+      <c r="J593" s="10"/>
     </row>
     <row r="594">
-      <c r="J594" s="9"/>
+      <c r="J594" s="10"/>
     </row>
     <row r="595">
-      <c r="J595" s="9"/>
+      <c r="J595" s="10"/>
     </row>
     <row r="596">
-      <c r="J596" s="9"/>
+      <c r="J596" s="10"/>
     </row>
     <row r="597">
-      <c r="J597" s="9"/>
+      <c r="J597" s="10"/>
     </row>
     <row r="598">
-      <c r="J598" s="9"/>
+      <c r="J598" s="10"/>
     </row>
     <row r="599">
-      <c r="J599" s="9"/>
+      <c r="J599" s="10"/>
     </row>
     <row r="600">
-      <c r="J600" s="9"/>
+      <c r="J600" s="10"/>
     </row>
     <row r="601">
-      <c r="J601" s="9"/>
+      <c r="J601" s="10"/>
     </row>
     <row r="602">
-      <c r="J602" s="9"/>
+      <c r="J602" s="10"/>
     </row>
     <row r="603">
-      <c r="J603" s="9"/>
+      <c r="J603" s="10"/>
     </row>
     <row r="604">
-      <c r="J604" s="9"/>
+      <c r="J604" s="10"/>
     </row>
     <row r="605">
-      <c r="J605" s="9"/>
+      <c r="J605" s="10"/>
     </row>
     <row r="606">
-      <c r="J606" s="9"/>
+      <c r="J606" s="10"/>
     </row>
     <row r="607">
-      <c r="J607" s="9"/>
+      <c r="J607" s="10"/>
     </row>
     <row r="608">
-      <c r="J608" s="9"/>
+      <c r="J608" s="10"/>
     </row>
     <row r="609">
-      <c r="J609" s="9"/>
+      <c r="J609" s="10"/>
     </row>
     <row r="610">
-      <c r="J610" s="9"/>
+      <c r="J610" s="10"/>
     </row>
     <row r="611">
-      <c r="J611" s="9"/>
+      <c r="J611" s="10"/>
     </row>
     <row r="612">
-      <c r="J612" s="9"/>
+      <c r="J612" s="10"/>
     </row>
     <row r="613">
-      <c r="J613" s="9"/>
+      <c r="J613" s="10"/>
     </row>
     <row r="614">
-      <c r="J614" s="9"/>
+      <c r="J614" s="10"/>
     </row>
     <row r="615">
-      <c r="J615" s="9"/>
+      <c r="J615" s="10"/>
     </row>
     <row r="616">
-      <c r="J616" s="9"/>
+      <c r="J616" s="10"/>
     </row>
     <row r="617">
-      <c r="J617" s="9"/>
+      <c r="J617" s="10"/>
     </row>
     <row r="618">
-      <c r="J618" s="9"/>
+      <c r="J618" s="10"/>
     </row>
     <row r="619">
-      <c r="J619" s="9"/>
+      <c r="J619" s="10"/>
     </row>
     <row r="620">
-      <c r="J620" s="9"/>
+      <c r="J620" s="10"/>
     </row>
     <row r="621">
-      <c r="J621" s="9"/>
+      <c r="J621" s="10"/>
     </row>
     <row r="622">
-      <c r="J622" s="9"/>
+      <c r="J622" s="10"/>
     </row>
     <row r="623">
-      <c r="J623" s="9"/>
+      <c r="J623" s="10"/>
     </row>
     <row r="624">
-      <c r="J624" s="9"/>
+      <c r="J624" s="10"/>
     </row>
     <row r="625">
-      <c r="J625" s="9"/>
+      <c r="J625" s="10"/>
     </row>
     <row r="626">
-      <c r="J626" s="9"/>
+      <c r="J626" s="10"/>
     </row>
     <row r="627">
-      <c r="J627" s="9"/>
+      <c r="J627" s="10"/>
     </row>
     <row r="628">
-      <c r="J628" s="9"/>
+      <c r="J628" s="10"/>
     </row>
     <row r="629">
-      <c r="J629" s="9"/>
+      <c r="J629" s="10"/>
     </row>
     <row r="630">
-      <c r="J630" s="9"/>
+      <c r="J630" s="10"/>
     </row>
     <row r="631">
-      <c r="J631" s="9"/>
+      <c r="J631" s="10"/>
     </row>
     <row r="632">
-      <c r="J632" s="9"/>
+      <c r="J632" s="10"/>
     </row>
     <row r="633">
-      <c r="J633" s="9"/>
+      <c r="J633" s="10"/>
     </row>
     <row r="634">
-      <c r="J634" s="9"/>
+      <c r="J634" s="10"/>
     </row>
     <row r="635">
-      <c r="J635" s="9"/>
+      <c r="J635" s="10"/>
     </row>
     <row r="636">
-      <c r="J636" s="9"/>
+      <c r="J636" s="10"/>
     </row>
     <row r="637">
-      <c r="J637" s="9"/>
+      <c r="J637" s="10"/>
     </row>
     <row r="638">
-      <c r="J638" s="9"/>
+      <c r="J638" s="10"/>
     </row>
     <row r="639">
-      <c r="J639" s="9"/>
+      <c r="J639" s="10"/>
     </row>
     <row r="640">
-      <c r="J640" s="9"/>
+      <c r="J640" s="10"/>
     </row>
     <row r="641">
-      <c r="J641" s="9"/>
+      <c r="J641" s="10"/>
     </row>
     <row r="642">
-      <c r="J642" s="9"/>
+      <c r="J642" s="10"/>
     </row>
     <row r="643">
-      <c r="J643" s="9"/>
+      <c r="J643" s="10"/>
     </row>
     <row r="644">
-      <c r="J644" s="9"/>
+      <c r="J644" s="10"/>
     </row>
     <row r="645">
-      <c r="J645" s="9"/>
+      <c r="J645" s="10"/>
     </row>
     <row r="646">
-      <c r="J646" s="9"/>
+      <c r="J646" s="10"/>
     </row>
     <row r="647">
-      <c r="J647" s="9"/>
+      <c r="J647" s="10"/>
     </row>
     <row r="648">
-      <c r="J648" s="9"/>
+      <c r="J648" s="10"/>
     </row>
     <row r="649">
-      <c r="J649" s="9"/>
+      <c r="J649" s="10"/>
     </row>
     <row r="650">
-      <c r="J650" s="9"/>
+      <c r="J650" s="10"/>
     </row>
     <row r="651">
-      <c r="J651" s="9"/>
+      <c r="J651" s="10"/>
     </row>
     <row r="652">
-      <c r="J652" s="9"/>
+      <c r="J652" s="10"/>
     </row>
     <row r="653">
-      <c r="J653" s="9"/>
+      <c r="J653" s="10"/>
     </row>
     <row r="654">
-      <c r="J654" s="9"/>
+      <c r="J654" s="10"/>
     </row>
     <row r="655">
-      <c r="J655" s="9"/>
+      <c r="J655" s="10"/>
     </row>
     <row r="656">
-      <c r="J656" s="9"/>
+      <c r="J656" s="10"/>
     </row>
     <row r="657">
-      <c r="J657" s="9"/>
+      <c r="J657" s="10"/>
     </row>
     <row r="658">
-      <c r="J658" s="9"/>
+      <c r="J658" s="10"/>
     </row>
     <row r="659">
-      <c r="J659" s="9"/>
+      <c r="J659" s="10"/>
     </row>
     <row r="660">
-      <c r="J660" s="9"/>
+      <c r="J660" s="10"/>
     </row>
     <row r="661">
-      <c r="J661" s="9"/>
+      <c r="J661" s="10"/>
     </row>
     <row r="662">
-      <c r="J662" s="9"/>
+      <c r="J662" s="10"/>
     </row>
     <row r="663">
-      <c r="J663" s="9"/>
+      <c r="J663" s="10"/>
     </row>
     <row r="664">
-      <c r="J664" s="9"/>
+      <c r="J664" s="10"/>
     </row>
     <row r="665">
-      <c r="J665" s="9"/>
+      <c r="J665" s="10"/>
     </row>
     <row r="666">
-      <c r="J666" s="9"/>
+      <c r="J666" s="10"/>
     </row>
     <row r="667">
-      <c r="J667" s="9"/>
+      <c r="J667" s="10"/>
     </row>
     <row r="668">
-      <c r="J668" s="9"/>
+      <c r="J668" s="10"/>
     </row>
     <row r="669">
-      <c r="J669" s="9"/>
+      <c r="J669" s="10"/>
     </row>
     <row r="670">
-      <c r="J670" s="9"/>
+      <c r="J670" s="10"/>
     </row>
     <row r="671">
-      <c r="J671" s="9"/>
+      <c r="J671" s="10"/>
     </row>
     <row r="672">
-      <c r="J672" s="9"/>
+      <c r="J672" s="10"/>
     </row>
     <row r="673">
-      <c r="J673" s="9"/>
+      <c r="J673" s="10"/>
     </row>
     <row r="674">
-      <c r="J674" s="9"/>
+      <c r="J674" s="10"/>
     </row>
     <row r="675">
-      <c r="J675" s="9"/>
+      <c r="J675" s="10"/>
     </row>
     <row r="676">
-      <c r="J676" s="9"/>
+      <c r="J676" s="10"/>
     </row>
     <row r="677">
-      <c r="J677" s="9"/>
+      <c r="J677" s="10"/>
     </row>
     <row r="678">
-      <c r="J678" s="9"/>
+      <c r="J678" s="10"/>
     </row>
     <row r="679">
-      <c r="J679" s="9"/>
+      <c r="J679" s="10"/>
     </row>
     <row r="680">
-      <c r="J680" s="9"/>
+      <c r="J680" s="10"/>
     </row>
     <row r="681">
-      <c r="J681" s="9"/>
+      <c r="J681" s="10"/>
     </row>
     <row r="682">
-      <c r="J682" s="9"/>
+      <c r="J682" s="10"/>
     </row>
     <row r="683">
-      <c r="J683" s="9"/>
+      <c r="J683" s="10"/>
     </row>
     <row r="684">
-      <c r="J684" s="9"/>
+      <c r="J684" s="10"/>
     </row>
     <row r="685">
-      <c r="J685" s="9"/>
+      <c r="J685" s="10"/>
     </row>
     <row r="686">
-      <c r="J686" s="9"/>
+      <c r="J686" s="10"/>
     </row>
     <row r="687">
-      <c r="J687" s="9"/>
+      <c r="J687" s="10"/>
     </row>
     <row r="688">
-      <c r="J688" s="9"/>
+      <c r="J688" s="10"/>
     </row>
     <row r="689">
-      <c r="J689" s="9"/>
+      <c r="J689" s="10"/>
     </row>
     <row r="690">
-      <c r="J690" s="9"/>
+      <c r="J690" s="10"/>
     </row>
     <row r="691">
-      <c r="J691" s="9"/>
+      <c r="J691" s="10"/>
     </row>
     <row r="692">
-      <c r="J692" s="9"/>
+      <c r="J692" s="10"/>
     </row>
     <row r="693">
-      <c r="J693" s="9"/>
+      <c r="J693" s="10"/>
     </row>
     <row r="694">
-      <c r="J694" s="9"/>
+      <c r="J694" s="10"/>
     </row>
     <row r="695">
-      <c r="J695" s="9"/>
+      <c r="J695" s="10"/>
     </row>
     <row r="696">
-      <c r="J696" s="9"/>
+      <c r="J696" s="10"/>
     </row>
     <row r="697">
-      <c r="J697" s="9"/>
+      <c r="J697" s="10"/>
     </row>
     <row r="698">
-      <c r="J698" s="9"/>
+      <c r="J698" s="10"/>
     </row>
     <row r="699">
-      <c r="J699" s="9"/>
+      <c r="J699" s="10"/>
     </row>
     <row r="700">
-      <c r="J700" s="9"/>
+      <c r="J700" s="10"/>
     </row>
     <row r="701">
-      <c r="J701" s="9"/>
+      <c r="J701" s="10"/>
     </row>
     <row r="702">
-      <c r="J702" s="9"/>
+      <c r="J702" s="10"/>
     </row>
     <row r="703">
-      <c r="J703" s="9"/>
+      <c r="J703" s="10"/>
     </row>
     <row r="704">
-      <c r="J704" s="9"/>
+      <c r="J704" s="10"/>
     </row>
     <row r="705">
-      <c r="J705" s="9"/>
+      <c r="J705" s="10"/>
     </row>
     <row r="706">
-      <c r="J706" s="9"/>
+      <c r="J706" s="10"/>
     </row>
     <row r="707">
-      <c r="J707" s="9"/>
+      <c r="J707" s="10"/>
     </row>
     <row r="708">
-      <c r="J708" s="9"/>
+      <c r="J708" s="10"/>
     </row>
     <row r="709">
-      <c r="J709" s="9"/>
+      <c r="J709" s="10"/>
     </row>
     <row r="710">
-      <c r="J710" s="9"/>
+      <c r="J710" s="10"/>
     </row>
     <row r="711">
-      <c r="J711" s="9"/>
+      <c r="J711" s="10"/>
     </row>
     <row r="712">
-      <c r="J712" s="9"/>
+      <c r="J712" s="10"/>
     </row>
     <row r="713">
-      <c r="J713" s="9"/>
+      <c r="J713" s="10"/>
     </row>
     <row r="714">
-      <c r="J714" s="9"/>
+      <c r="J714" s="10"/>
     </row>
     <row r="715">
-      <c r="J715" s="9"/>
+      <c r="J715" s="10"/>
     </row>
     <row r="716">
-      <c r="J716" s="9"/>
+      <c r="J716" s="10"/>
     </row>
     <row r="717">
-      <c r="J717" s="9"/>
+      <c r="J717" s="10"/>
     </row>
     <row r="718">
-      <c r="J718" s="9"/>
+      <c r="J718" s="10"/>
     </row>
     <row r="719">
-      <c r="J719" s="9"/>
+      <c r="J719" s="10"/>
     </row>
     <row r="720">
-      <c r="J720" s="9"/>
+      <c r="J720" s="10"/>
     </row>
     <row r="721">
-      <c r="J721" s="9"/>
+      <c r="J721" s="10"/>
     </row>
     <row r="722">
-      <c r="J722" s="9"/>
+      <c r="J722" s="10"/>
     </row>
     <row r="723">
-      <c r="J723" s="9"/>
+      <c r="J723" s="10"/>
     </row>
     <row r="724">
-      <c r="J724" s="9"/>
+      <c r="J724" s="10"/>
     </row>
     <row r="725">
-      <c r="J725" s="9"/>
+      <c r="J725" s="10"/>
     </row>
     <row r="726">
-      <c r="J726" s="9"/>
+      <c r="J726" s="10"/>
     </row>
     <row r="727">
-      <c r="J727" s="9"/>
+      <c r="J727" s="10"/>
     </row>
     <row r="728">
-      <c r="J728" s="9"/>
+      <c r="J728" s="10"/>
     </row>
     <row r="729">
-      <c r="J729" s="9"/>
+      <c r="J729" s="10"/>
     </row>
     <row r="730">
-      <c r="J730" s="9"/>
+      <c r="J730" s="10"/>
     </row>
     <row r="731">
-      <c r="J731" s="9"/>
+      <c r="J731" s="10"/>
     </row>
     <row r="732">
-      <c r="J732" s="9"/>
+      <c r="J732" s="10"/>
     </row>
     <row r="733">
-      <c r="J733" s="9"/>
+      <c r="J733" s="10"/>
     </row>
     <row r="734">
-      <c r="J734" s="9"/>
+      <c r="J734" s="10"/>
     </row>
     <row r="735">
-      <c r="J735" s="9"/>
+      <c r="J735" s="10"/>
     </row>
     <row r="736">
-      <c r="J736" s="9"/>
+      <c r="J736" s="10"/>
     </row>
     <row r="737">
-      <c r="J737" s="9"/>
+      <c r="J737" s="10"/>
     </row>
     <row r="738">
-      <c r="J738" s="9"/>
+      <c r="J738" s="10"/>
     </row>
     <row r="739">
-      <c r="J739" s="9"/>
+      <c r="J739" s="10"/>
     </row>
     <row r="740">
-      <c r="J740" s="9"/>
+      <c r="J740" s="10"/>
     </row>
     <row r="741">
-      <c r="J741" s="9"/>
+      <c r="J741" s="10"/>
     </row>
     <row r="742">
-      <c r="J742" s="9"/>
+      <c r="J742" s="10"/>
     </row>
     <row r="743">
-      <c r="J743" s="9"/>
+      <c r="J743" s="10"/>
     </row>
     <row r="744">
-      <c r="J744" s="9"/>
+      <c r="J744" s="10"/>
     </row>
     <row r="745">
-      <c r="J745" s="9"/>
+      <c r="J745" s="10"/>
     </row>
     <row r="746">
-      <c r="J746" s="9"/>
+      <c r="J746" s="10"/>
     </row>
     <row r="747">
-      <c r="J747" s="9"/>
+      <c r="J747" s="10"/>
     </row>
     <row r="748">
-      <c r="J748" s="9"/>
+      <c r="J748" s="10"/>
     </row>
     <row r="749">
-      <c r="J749" s="9"/>
+      <c r="J749" s="10"/>
     </row>
     <row r="750">
-      <c r="J750" s="9"/>
+      <c r="J750" s="10"/>
     </row>
     <row r="751">
-      <c r="J751" s="9"/>
+      <c r="J751" s="10"/>
     </row>
     <row r="752">
-      <c r="J752" s="9"/>
+      <c r="J752" s="10"/>
     </row>
     <row r="753">
-      <c r="J753" s="9"/>
+      <c r="J753" s="10"/>
     </row>
     <row r="754">
-      <c r="J754" s="9"/>
+      <c r="J754" s="10"/>
     </row>
     <row r="755">
-      <c r="J755" s="9"/>
+      <c r="J755" s="10"/>
     </row>
     <row r="756">
-      <c r="J756" s="9"/>
+      <c r="J756" s="10"/>
     </row>
     <row r="757">
-      <c r="J757" s="9"/>
+      <c r="J757" s="10"/>
     </row>
     <row r="758">
-      <c r="J758" s="9"/>
+      <c r="J758" s="10"/>
     </row>
     <row r="759">
-      <c r="J759" s="9"/>
+      <c r="J759" s="10"/>
     </row>
     <row r="760">
-      <c r="J760" s="9"/>
+      <c r="J760" s="10"/>
     </row>
     <row r="761">
-      <c r="J761" s="9"/>
+      <c r="J761" s="10"/>
     </row>
     <row r="762">
-      <c r="J762" s="9"/>
+      <c r="J762" s="10"/>
     </row>
     <row r="763">
-      <c r="J763" s="9"/>
+      <c r="J763" s="10"/>
     </row>
     <row r="764">
-      <c r="J764" s="9"/>
+      <c r="J764" s="10"/>
     </row>
     <row r="765">
-      <c r="J765" s="9"/>
+      <c r="J765" s="10"/>
     </row>
     <row r="766">
-      <c r="J766" s="9"/>
+      <c r="J766" s="10"/>
     </row>
     <row r="767">
-      <c r="J767" s="9"/>
+      <c r="J767" s="10"/>
     </row>
     <row r="768">
-      <c r="J768" s="9"/>
+      <c r="J768" s="10"/>
     </row>
     <row r="769">
-      <c r="J769" s="9"/>
+      <c r="J769" s="10"/>
     </row>
     <row r="770">
-      <c r="J770" s="9"/>
+      <c r="J770" s="10"/>
     </row>
     <row r="771">
-      <c r="J771" s="9"/>
+      <c r="J771" s="10"/>
     </row>
     <row r="772">
-      <c r="J772" s="9"/>
+      <c r="J772" s="10"/>
     </row>
     <row r="773">
-      <c r="J773" s="9"/>
+      <c r="J773" s="10"/>
     </row>
     <row r="774">
-      <c r="J774" s="9"/>
+      <c r="J774" s="10"/>
     </row>
     <row r="775">
-      <c r="J775" s="9"/>
+      <c r="J775" s="10"/>
     </row>
     <row r="776">
-      <c r="J776" s="9"/>
+      <c r="J776" s="10"/>
     </row>
     <row r="777">
-      <c r="J777" s="9"/>
+      <c r="J777" s="10"/>
     </row>
     <row r="778">
-      <c r="J778" s="9"/>
+      <c r="J778" s="10"/>
     </row>
     <row r="779">
-      <c r="J779" s="9"/>
+      <c r="J779" s="10"/>
     </row>
     <row r="780">
-      <c r="J780" s="9"/>
+      <c r="J780" s="10"/>
     </row>
     <row r="781">
-      <c r="J781" s="9"/>
+      <c r="J781" s="10"/>
     </row>
     <row r="782">
-      <c r="J782" s="9"/>
+      <c r="J782" s="10"/>
     </row>
     <row r="783">
-      <c r="J783" s="9"/>
+      <c r="J783" s="10"/>
     </row>
     <row r="784">
-      <c r="J784" s="9"/>
+      <c r="J784" s="10"/>
     </row>
     <row r="785">
-      <c r="J785" s="9"/>
+      <c r="J785" s="10"/>
     </row>
     <row r="786">
-      <c r="J786" s="9"/>
+      <c r="J786" s="10"/>
     </row>
     <row r="787">
-      <c r="J787" s="9"/>
+      <c r="J787" s="10"/>
     </row>
     <row r="788">
-      <c r="J788" s="9"/>
+      <c r="J788" s="10"/>
     </row>
     <row r="789">
-      <c r="J789" s="9"/>
+      <c r="J789" s="10"/>
     </row>
     <row r="790">
-      <c r="J790" s="9"/>
+      <c r="J790" s="10"/>
     </row>
     <row r="791">
-      <c r="J791" s="9"/>
+      <c r="J791" s="10"/>
     </row>
     <row r="792">
-      <c r="J792" s="9"/>
+      <c r="J792" s="10"/>
     </row>
     <row r="793">
-      <c r="J793" s="9"/>
+      <c r="J793" s="10"/>
     </row>
     <row r="794">
-      <c r="J794" s="9"/>
+      <c r="J794" s="10"/>
     </row>
     <row r="795">
-      <c r="J795" s="9"/>
+      <c r="J795" s="10"/>
     </row>
     <row r="796">
-      <c r="J796" s="9"/>
+      <c r="J796" s="10"/>
     </row>
     <row r="797">
-      <c r="J797" s="9"/>
+      <c r="J797" s="10"/>
     </row>
     <row r="798">
-      <c r="J798" s="9"/>
+      <c r="J798" s="10"/>
     </row>
     <row r="799">
-      <c r="J799" s="9"/>
+      <c r="J799" s="10"/>
     </row>
     <row r="800">
-      <c r="J800" s="9"/>
+      <c r="J800" s="10"/>
     </row>
     <row r="801">
-      <c r="J801" s="9"/>
+      <c r="J801" s="10"/>
     </row>
     <row r="802">
-      <c r="J802" s="9"/>
+      <c r="J802" s="10"/>
     </row>
     <row r="803">
-      <c r="J803" s="9"/>
+      <c r="J803" s="10"/>
     </row>
     <row r="804">
-      <c r="J804" s="9"/>
+      <c r="J804" s="10"/>
     </row>
     <row r="805">
-      <c r="J805" s="9"/>
+      <c r="J805" s="10"/>
     </row>
     <row r="806">
-      <c r="J806" s="9"/>
+      <c r="J806" s="10"/>
     </row>
     <row r="807">
-      <c r="J807" s="9"/>
+      <c r="J807" s="10"/>
     </row>
     <row r="808">
-      <c r="J808" s="9"/>
+      <c r="J808" s="10"/>
     </row>
     <row r="809">
-      <c r="J809" s="9"/>
+      <c r="J809" s="10"/>
     </row>
     <row r="810">
-      <c r="J810" s="9"/>
+      <c r="J810" s="10"/>
     </row>
     <row r="811">
-      <c r="J811" s="9"/>
+      <c r="J811" s="10"/>
     </row>
     <row r="812">
-      <c r="J812" s="9"/>
+      <c r="J812" s="10"/>
     </row>
     <row r="813">
-      <c r="J813" s="9"/>
+      <c r="J813" s="10"/>
     </row>
     <row r="814">
-      <c r="J814" s="9"/>
+      <c r="J814" s="10"/>
     </row>
     <row r="815">
-      <c r="J815" s="9"/>
+      <c r="J815" s="10"/>
     </row>
     <row r="816">
-      <c r="J816" s="9"/>
+      <c r="J816" s="10"/>
     </row>
     <row r="817">
-      <c r="J817" s="9"/>
+      <c r="J817" s="10"/>
     </row>
     <row r="818">
-      <c r="J818" s="9"/>
+      <c r="J818" s="10"/>
     </row>
     <row r="819">
-      <c r="J819" s="9"/>
+      <c r="J819" s="10"/>
     </row>
     <row r="820">
-      <c r="J820" s="9"/>
+      <c r="J820" s="10"/>
     </row>
     <row r="821">
-      <c r="J821" s="9"/>
+      <c r="J821" s="10"/>
     </row>
     <row r="822">
-      <c r="J822" s="9"/>
+      <c r="J822" s="10"/>
     </row>
     <row r="823">
-      <c r="J823" s="9"/>
+      <c r="J823" s="10"/>
     </row>
     <row r="824">
-      <c r="J824" s="9"/>
+      <c r="J824" s="10"/>
     </row>
     <row r="825">
-      <c r="J825" s="9"/>
+      <c r="J825" s="10"/>
     </row>
     <row r="826">
-      <c r="J826" s="9"/>
+      <c r="J826" s="10"/>
     </row>
     <row r="827">
-      <c r="J827" s="9"/>
+      <c r="J827" s="10"/>
     </row>
     <row r="828">
-      <c r="J828" s="9"/>
+      <c r="J828" s="10"/>
     </row>
     <row r="829">
-      <c r="J829" s="9"/>
+      <c r="J829" s="10"/>
     </row>
     <row r="830">
-      <c r="J830" s="9"/>
+      <c r="J830" s="10"/>
     </row>
     <row r="831">
-      <c r="J831" s="9"/>
+      <c r="J831" s="10"/>
     </row>
     <row r="832">
-      <c r="J832" s="9"/>
+      <c r="J832" s="10"/>
     </row>
     <row r="833">
-      <c r="J833" s="9"/>
+      <c r="J833" s="10"/>
     </row>
     <row r="834">
-      <c r="J834" s="9"/>
+      <c r="J834" s="10"/>
     </row>
     <row r="835">
-      <c r="J835" s="9"/>
+      <c r="J835" s="10"/>
     </row>
     <row r="836">
-      <c r="J836" s="9"/>
+      <c r="J836" s="10"/>
     </row>
     <row r="837">
-      <c r="J837" s="9"/>
+      <c r="J837" s="10"/>
     </row>
     <row r="838">
-      <c r="J838" s="9"/>
+      <c r="J838" s="10"/>
     </row>
     <row r="839">
-      <c r="J839" s="9"/>
+      <c r="J839" s="10"/>
     </row>
     <row r="840">
-      <c r="J840" s="9"/>
+      <c r="J840" s="10"/>
     </row>
     <row r="841">
-      <c r="J841" s="9"/>
+      <c r="J841" s="10"/>
     </row>
     <row r="842">
-      <c r="J842" s="9"/>
+      <c r="J842" s="10"/>
     </row>
     <row r="843">
-      <c r="J843" s="9"/>
+      <c r="J843" s="10"/>
     </row>
     <row r="844">
-      <c r="J844" s="9"/>
+      <c r="J844" s="10"/>
     </row>
     <row r="845">
-      <c r="J845" s="9"/>
+      <c r="J845" s="10"/>
     </row>
     <row r="846">
-      <c r="J846" s="9"/>
+      <c r="J846" s="10"/>
     </row>
     <row r="847">
-      <c r="J847" s="9"/>
+      <c r="J847" s="10"/>
     </row>
     <row r="848">
-      <c r="J848" s="9"/>
+      <c r="J848" s="10"/>
     </row>
     <row r="849">
-      <c r="J849" s="9"/>
+      <c r="J849" s="10"/>
     </row>
     <row r="850">
-      <c r="J850" s="9"/>
+      <c r="J850" s="10"/>
     </row>
     <row r="851">
-      <c r="J851" s="9"/>
+      <c r="J851" s="10"/>
     </row>
     <row r="852">
-      <c r="J852" s="9"/>
+      <c r="J852" s="10"/>
     </row>
     <row r="853">
-      <c r="J853" s="9"/>
+      <c r="J853" s="10"/>
     </row>
     <row r="854">
-      <c r="J854" s="9"/>
+      <c r="J854" s="10"/>
     </row>
     <row r="855">
-      <c r="J855" s="9"/>
+      <c r="J855" s="10"/>
     </row>
     <row r="856">
-      <c r="J856" s="9"/>
+      <c r="J856" s="10"/>
     </row>
     <row r="857">
-      <c r="J857" s="9"/>
+      <c r="J857" s="10"/>
     </row>
     <row r="858">
-      <c r="J858" s="9"/>
+      <c r="J858" s="10"/>
     </row>
     <row r="859">
-      <c r="J859" s="9"/>
+      <c r="J859" s="10"/>
     </row>
     <row r="860">
-      <c r="J860" s="9"/>
+      <c r="J860" s="10"/>
     </row>
     <row r="861">
-      <c r="J861" s="9"/>
+      <c r="J861" s="10"/>
     </row>
     <row r="862">
-      <c r="J862" s="9"/>
+      <c r="J862" s="10"/>
     </row>
     <row r="863">
-      <c r="J863" s="9"/>
+      <c r="J863" s="10"/>
     </row>
     <row r="864">
-      <c r="J864" s="9"/>
+      <c r="J864" s="10"/>
     </row>
     <row r="865">
-      <c r="J865" s="9"/>
+      <c r="J865" s="10"/>
     </row>
     <row r="866">
-      <c r="J866" s="9"/>
+      <c r="J866" s="10"/>
     </row>
     <row r="867">
-      <c r="J867" s="9"/>
+      <c r="J867" s="10"/>
     </row>
     <row r="868">
-      <c r="J868" s="9"/>
+      <c r="J868" s="10"/>
     </row>
     <row r="869">
-      <c r="J869" s="9"/>
+      <c r="J869" s="10"/>
     </row>
     <row r="870">
-      <c r="J870" s="9"/>
+      <c r="J870" s="10"/>
     </row>
     <row r="871">
-      <c r="J871" s="9"/>
+      <c r="J871" s="10"/>
     </row>
     <row r="872">
-      <c r="J872" s="9"/>
+      <c r="J872" s="10"/>
     </row>
     <row r="873">
-      <c r="J873" s="9"/>
+      <c r="J873" s="10"/>
     </row>
     <row r="874">
-      <c r="J874" s="9"/>
+      <c r="J874" s="10"/>
     </row>
     <row r="875">
-      <c r="J875" s="9"/>
+      <c r="J875" s="10"/>
     </row>
     <row r="876">
-      <c r="J876" s="9"/>
+      <c r="J876" s="10"/>
     </row>
     <row r="877">
-      <c r="J877" s="9"/>
+      <c r="J877" s="10"/>
     </row>
     <row r="878">
-      <c r="J878" s="9"/>
+      <c r="J878" s="10"/>
     </row>
     <row r="879">
-      <c r="J879" s="9"/>
+      <c r="J879" s="10"/>
     </row>
     <row r="880">
-      <c r="J880" s="9"/>
+      <c r="J880" s="10"/>
     </row>
     <row r="881">
-      <c r="J881" s="9"/>
+      <c r="J881" s="10"/>
     </row>
     <row r="882">
-      <c r="J882" s="9"/>
+      <c r="J882" s="10"/>
     </row>
     <row r="883">
-      <c r="J883" s="9"/>
+      <c r="J883" s="10"/>
     </row>
     <row r="884">
-      <c r="J884" s="9"/>
+      <c r="J884" s="10"/>
     </row>
     <row r="885">
-      <c r="J885" s="9"/>
+      <c r="J885" s="10"/>
     </row>
     <row r="886">
-      <c r="J886" s="9"/>
+      <c r="J886" s="10"/>
     </row>
     <row r="887">
-      <c r="J887" s="9"/>
+      <c r="J887" s="10"/>
     </row>
     <row r="888">
-      <c r="J888" s="9"/>
+      <c r="J888" s="10"/>
     </row>
     <row r="889">
-      <c r="J889" s="9"/>
+      <c r="J889" s="10"/>
     </row>
     <row r="890">
-      <c r="J890" s="9"/>
+      <c r="J890" s="10"/>
     </row>
     <row r="891">
-      <c r="J891" s="9"/>
+      <c r="J891" s="10"/>
     </row>
     <row r="892">
-      <c r="J892" s="9"/>
+      <c r="J892" s="10"/>
     </row>
     <row r="893">
-      <c r="J893" s="9"/>
+      <c r="J893" s="10"/>
     </row>
     <row r="894">
-      <c r="J894" s="9"/>
+      <c r="J894" s="10"/>
     </row>
     <row r="895">
-      <c r="J895" s="9"/>
+      <c r="J895" s="10"/>
     </row>
     <row r="896">
-      <c r="J896" s="9"/>
+      <c r="J896" s="10"/>
     </row>
     <row r="897">
-      <c r="J897" s="9"/>
+      <c r="J897" s="10"/>
     </row>
     <row r="898">
-      <c r="J898" s="9"/>
+      <c r="J898" s="10"/>
     </row>
     <row r="899">
-      <c r="J899" s="9"/>
+      <c r="J899" s="10"/>
     </row>
     <row r="900">
-      <c r="J900" s="9"/>
+      <c r="J900" s="10"/>
     </row>
     <row r="901">
-      <c r="J901" s="9"/>
+      <c r="J901" s="10"/>
     </row>
     <row r="902">
-      <c r="J902" s="9"/>
+      <c r="J902" s="10"/>
     </row>
     <row r="903">
-      <c r="J903" s="9"/>
+      <c r="J903" s="10"/>
     </row>
     <row r="904">
-      <c r="J904" s="9"/>
+      <c r="J904" s="10"/>
     </row>
     <row r="905">
-      <c r="J905" s="9"/>
+      <c r="J905" s="10"/>
     </row>
     <row r="906">
-      <c r="J906" s="9"/>
+      <c r="J906" s="10"/>
     </row>
     <row r="907">
-      <c r="J907" s="9"/>
+      <c r="J907" s="10"/>
     </row>
     <row r="908">
-      <c r="J908" s="9"/>
+      <c r="J908" s="10"/>
     </row>
     <row r="909">
-      <c r="J909" s="9"/>
+      <c r="J909" s="10"/>
     </row>
     <row r="910">
-      <c r="J910" s="9"/>
+      <c r="J910" s="10"/>
     </row>
     <row r="911">
-      <c r="J911" s="9"/>
+      <c r="J911" s="10"/>
     </row>
     <row r="912">
-      <c r="J912" s="9"/>
+      <c r="J912" s="10"/>
     </row>
     <row r="913">
-      <c r="J913" s="9"/>
+      <c r="J913" s="10"/>
     </row>
     <row r="914">
-      <c r="J914" s="9"/>
+      <c r="J914" s="10"/>
     </row>
     <row r="915">
-      <c r="J915" s="9"/>
+      <c r="J915" s="10"/>
     </row>
     <row r="916">
-      <c r="J916" s="9"/>
+      <c r="J916" s="10"/>
     </row>
     <row r="917">
-      <c r="J917" s="9"/>
+      <c r="J917" s="10"/>
     </row>
     <row r="918">
-      <c r="J918" s="9"/>
+      <c r="J918" s="10"/>
     </row>
     <row r="919">
-      <c r="J919" s="9"/>
+      <c r="J919" s="10"/>
     </row>
     <row r="920">
-      <c r="J920" s="9"/>
+      <c r="J920" s="10"/>
     </row>
     <row r="921">
-      <c r="J921" s="9"/>
+      <c r="J921" s="10"/>
     </row>
     <row r="922">
-      <c r="J922" s="9"/>
+      <c r="J922" s="10"/>
     </row>
     <row r="923">
-      <c r="J923" s="9"/>
+      <c r="J923" s="10"/>
     </row>
     <row r="924">
-      <c r="J924" s="9"/>
+      <c r="J924" s="10"/>
     </row>
     <row r="925">
-      <c r="J925" s="9"/>
+      <c r="J925" s="10"/>
     </row>
     <row r="926">
-      <c r="J926" s="9"/>
+      <c r="J926" s="10"/>
     </row>
     <row r="927">
-      <c r="J927" s="9"/>
+      <c r="J927" s="10"/>
     </row>
     <row r="928">
-      <c r="J928" s="9"/>
+      <c r="J928" s="10"/>
     </row>
     <row r="929">
-      <c r="J929" s="9"/>
+      <c r="J929" s="10"/>
     </row>
     <row r="930">
-      <c r="J930" s="9"/>
+      <c r="J930" s="10"/>
     </row>
     <row r="931">
-      <c r="J931" s="9"/>
+      <c r="J931" s="10"/>
     </row>
     <row r="932">
-      <c r="J932" s="9"/>
+      <c r="J932" s="10"/>
     </row>
     <row r="933">
-      <c r="J933" s="9"/>
+      <c r="J933" s="10"/>
     </row>
     <row r="934">
-      <c r="J934" s="9"/>
+      <c r="J934" s="10"/>
     </row>
     <row r="935">
-      <c r="J935" s="9"/>
+      <c r="J935" s="10"/>
     </row>
     <row r="936">
-      <c r="J936" s="9"/>
+      <c r="J936" s="10"/>
     </row>
     <row r="937">
-      <c r="J937" s="9"/>
+      <c r="J937" s="10"/>
     </row>
     <row r="938">
-      <c r="J938" s="9"/>
+      <c r="J938" s="10"/>
     </row>
     <row r="939">
-      <c r="J939" s="9"/>
+      <c r="J939" s="10"/>
     </row>
     <row r="940">
-      <c r="J940" s="9"/>
+      <c r="J940" s="10"/>
     </row>
     <row r="941">
-      <c r="J941" s="9"/>
+      <c r="J941" s="10"/>
     </row>
     <row r="942">
-      <c r="J942" s="9"/>
+      <c r="J942" s="10"/>
     </row>
     <row r="943">
-      <c r="J943" s="9"/>
+      <c r="J943" s="10"/>
     </row>
     <row r="944">
-      <c r="J944" s="9"/>
+      <c r="J944" s="10"/>
     </row>
     <row r="945">
-      <c r="J945" s="9"/>
+      <c r="J945" s="10"/>
     </row>
     <row r="946">
-      <c r="J946" s="9"/>
+      <c r="J946" s="10"/>
     </row>
     <row r="947">
-      <c r="J947" s="9"/>
+      <c r="J947" s="10"/>
     </row>
     <row r="948">
-      <c r="J948" s="9"/>
+      <c r="J948" s="10"/>
     </row>
     <row r="949">
-      <c r="J949" s="9"/>
+      <c r="J949" s="10"/>
     </row>
     <row r="950">
-      <c r="J950" s="9"/>
+      <c r="J950" s="10"/>
     </row>
     <row r="951">
-      <c r="J951" s="9"/>
+      <c r="J951" s="10"/>
     </row>
     <row r="952">
-      <c r="J952" s="9"/>
+      <c r="J952" s="10"/>
     </row>
     <row r="953">
-      <c r="J953" s="9"/>
+      <c r="J953" s="10"/>
     </row>
     <row r="954">
-      <c r="J954" s="9"/>
+      <c r="J954" s="10"/>
     </row>
     <row r="955">
-      <c r="J955" s="9"/>
+      <c r="J955" s="10"/>
     </row>
     <row r="956">
-      <c r="J956" s="9"/>
+      <c r="J956" s="10"/>
     </row>
     <row r="957">
-      <c r="J957" s="9"/>
+      <c r="J957" s="10"/>
     </row>
     <row r="958">
-      <c r="J958" s="9"/>
+      <c r="J958" s="10"/>
     </row>
     <row r="959">
-      <c r="J959" s="9"/>
+      <c r="J959" s="10"/>
     </row>
     <row r="960">
-      <c r="J960" s="9"/>
+      <c r="J960" s="10"/>
     </row>
     <row r="961">
-      <c r="J961" s="9"/>
+      <c r="J961" s="10"/>
     </row>
     <row r="962">
-      <c r="J962" s="9"/>
+      <c r="J962" s="10"/>
     </row>
     <row r="963">
-      <c r="J963" s="9"/>
+      <c r="J963" s="10"/>
     </row>
     <row r="964">
-      <c r="J964" s="9"/>
+      <c r="J964" s="10"/>
     </row>
     <row r="965">
-      <c r="J965" s="9"/>
+      <c r="J965" s="10"/>
     </row>
     <row r="966">
-      <c r="J966" s="9"/>
+      <c r="J966" s="10"/>
     </row>
     <row r="967">
-      <c r="J967" s="9"/>
+      <c r="J967" s="10"/>
     </row>
     <row r="968">
-      <c r="J968" s="9"/>
+      <c r="J968" s="10"/>
     </row>
     <row r="969">
-      <c r="J969" s="9"/>
+      <c r="J969" s="10"/>
     </row>
     <row r="970">
-      <c r="J970" s="9"/>
+      <c r="J970" s="10"/>
     </row>
     <row r="971">
-      <c r="J971" s="9"/>
+      <c r="J971" s="10"/>
     </row>
     <row r="972">
-      <c r="J972" s="9"/>
+      <c r="J972" s="10"/>
     </row>
     <row r="973">
-      <c r="J973" s="9"/>
+      <c r="J973" s="10"/>
     </row>
     <row r="974">
-      <c r="J974" s="9"/>
+      <c r="J974" s="10"/>
     </row>
     <row r="975">
-      <c r="J975" s="9"/>
+      <c r="J975" s="10"/>
     </row>
     <row r="976">
-      <c r="J976" s="9"/>
+      <c r="J976" s="10"/>
     </row>
     <row r="977">
-      <c r="J977" s="9"/>
+      <c r="J977" s="10"/>
     </row>
     <row r="978">
-      <c r="J978" s="9"/>
+      <c r="J978" s="10"/>
     </row>
     <row r="979">
-      <c r="J979" s="9"/>
+      <c r="J979" s="10"/>
     </row>
     <row r="980">
-      <c r="J980" s="9"/>
+      <c r="J980" s="10"/>
     </row>
     <row r="981">
-      <c r="J981" s="9"/>
+      <c r="J981" s="10"/>
     </row>
     <row r="982">
-      <c r="J982" s="9"/>
+      <c r="J982" s="10"/>
     </row>
     <row r="983">
-      <c r="J983" s="9"/>
+      <c r="J983" s="10"/>
     </row>
     <row r="984">
-      <c r="J984" s="9"/>
+      <c r="J984" s="10"/>
     </row>
     <row r="985">
-      <c r="J985" s="9"/>
+      <c r="J985" s="10"/>
     </row>
     <row r="986">
-      <c r="J986" s="9"/>
+      <c r="J986" s="10"/>
     </row>
     <row r="987">
-      <c r="J987" s="9"/>
+      <c r="J987" s="10"/>
     </row>
     <row r="988">
-      <c r="J988" s="9"/>
+      <c r="J988" s="10"/>
     </row>
     <row r="989">
-      <c r="J989" s="9"/>
+      <c r="J989" s="10"/>
     </row>
     <row r="990">
-      <c r="J990" s="9"/>
+      <c r="J990" s="10"/>
     </row>
     <row r="991">
-      <c r="J991" s="9"/>
+      <c r="J991" s="10"/>
     </row>
     <row r="992">
-      <c r="J992" s="9"/>
+      <c r="J992" s="10"/>
     </row>
     <row r="993">
-      <c r="J993" s="9"/>
+      <c r="J993" s="10"/>
     </row>
     <row r="994">
-      <c r="J994" s="9"/>
+      <c r="J994" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1">
@@ -4835,13 +4869,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4870,120 +4904,120 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>186988.0</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>58314.0</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
         <v>2706911.0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
